--- a/Assignment3(Python_Project)/data/transaction.xlsx
+++ b/Assignment3(Python_Project)/data/transaction.xlsx
@@ -6311,16 +6311,16 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>Rent</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t xml:space="preserve">DIS </t>
+          <t>test</t>
         </is>
       </c>
       <c r="E280" t="n">
-        <v>-2000</v>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Assignment3(Python_Project)/data/transaction.xlsx
+++ b/Assignment3(Python_Project)/data/transaction.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E280"/>
+  <dimension ref="A1:E281"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6323,6 +6323,27 @@
         <v>-1</v>
       </c>
     </row>
+    <row r="281">
+      <c r="A281" t="n">
+        <v>280</v>
+      </c>
+      <c r="B281" s="2" t="n">
+        <v>45819</v>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>Food</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>TEST</t>
+        </is>
+      </c>
+      <c r="E281" t="n">
+        <v>-1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Assignment3(Python_Project)/data/transaction.xlsx
+++ b/Assignment3(Python_Project)/data/transaction.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaqu\DIS\Github\python-project\Assignment3(Python_Project)\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\OCS001991\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1831966A-EB19-4375-A23C-FD4CF683E8DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7310"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -115,29 +114,17 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="dd\-mm\-yyyy"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -153,29 +140,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -198,31 +163,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -315,7 +282,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -350,7 +316,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -374,6 +339,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
@@ -384,31 +350,31 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="51000"/>
+                <a:shade val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
+                <a:shade val="93000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="94000"/>
+                <a:shade val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="9500"/>
+              <a:shade val="95000"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
@@ -430,7 +396,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -488,7 +454,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="20000"/>
+                <a:shade val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -501,12 +467,13 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
                 <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
+                <a:shade val="30000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -524,48 +491,43 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:E279"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F279"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A268" workbookViewId="0">
-      <selection activeCell="S279" sqref="S279"/>
+    <sheetView tabSelected="1" topLeftCell="A263" workbookViewId="0">
+      <selection activeCell="G267" sqref="G267"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.81640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="10.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="7">
-        <v>45658</v>
+      <c r="B2" s="3">
+        <v>45574</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -573,16 +535,17 @@
       <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2">
         <v>-2.5</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="7">
-        <v>45658</v>
+      <c r="B3" s="3">
+        <v>45574</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -590,16 +553,17 @@
       <c r="D3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3">
         <v>-3</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="7">
-        <v>45658</v>
+      <c r="B4" s="3">
+        <v>45574</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -607,16 +571,17 @@
       <c r="D4" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4">
         <v>-14</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="7">
-        <v>45658</v>
+      <c r="B5" s="3">
+        <v>45574</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -624,16 +589,17 @@
       <c r="D5" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5">
         <v>-19</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" s="7">
-        <v>45658</v>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3">
+        <v>45574</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
@@ -641,16 +607,17 @@
       <c r="D6" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6">
         <v>2500</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" s="7">
-        <v>45659</v>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3">
+        <v>45575</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
@@ -658,16 +625,17 @@
       <c r="D7" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7">
         <v>-10</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="7">
-        <v>45660</v>
+      <c r="B8" s="3">
+        <v>45576</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -675,16 +643,17 @@
       <c r="D8" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8">
         <v>-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
-        <v>8</v>
-      </c>
-      <c r="B9" s="7">
-        <v>45660</v>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3">
+        <v>45576</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
@@ -692,16 +661,17 @@
       <c r="D9" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9">
         <v>-9</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="7">
-        <v>45660</v>
+      <c r="B10" s="3">
+        <v>45576</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
@@ -709,16 +679,17 @@
       <c r="D10" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10">
         <v>-11</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="7">
-        <v>45661</v>
+      <c r="B11" s="3">
+        <v>45577</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -726,16 +697,17 @@
       <c r="D11" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11">
         <v>-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="7">
-        <v>45662</v>
+      <c r="B12" s="3">
+        <v>45578</v>
       </c>
       <c r="C12" t="s">
         <v>8</v>
@@ -743,16 +715,17 @@
       <c r="D12" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12">
         <v>-10</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="7">
-        <v>45662</v>
+      <c r="B13" s="3">
+        <v>45578</v>
       </c>
       <c r="C13" t="s">
         <v>8</v>
@@ -760,16 +733,17 @@
       <c r="D13" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13">
         <v>-83</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="7">
-        <v>45663</v>
+      <c r="B14" s="3">
+        <v>45579</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -777,16 +751,17 @@
       <c r="D14" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14">
         <v>-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="3">
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="7">
-        <v>45663</v>
+      <c r="B15" s="3">
+        <v>45579</v>
       </c>
       <c r="C15" t="s">
         <v>8</v>
@@ -794,16 +769,17 @@
       <c r="D15" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15">
         <v>-8</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="3">
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="7">
-        <v>45664</v>
+      <c r="B16" s="3">
+        <v>45580</v>
       </c>
       <c r="C16" t="s">
         <v>8</v>
@@ -811,16 +787,17 @@
       <c r="D16" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16">
         <v>-15</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="3">
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="7">
-        <v>45665</v>
+      <c r="B17" s="3">
+        <v>45581</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -828,16 +805,17 @@
       <c r="D17" t="s">
         <v>6</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17">
         <v>-1.5</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="3">
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="7">
-        <v>45665</v>
+      <c r="B18" s="3">
+        <v>45581</v>
       </c>
       <c r="C18" t="s">
         <v>8</v>
@@ -845,16 +823,17 @@
       <c r="D18" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18">
         <v>-9</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="3">
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="7">
-        <v>45665</v>
+      <c r="B19" s="3">
+        <v>45581</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -862,16 +841,17 @@
       <c r="D19" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19">
         <v>-14</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="3">
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="7">
-        <v>45666</v>
+      <c r="B20" s="3">
+        <v>45582</v>
       </c>
       <c r="C20" t="s">
         <v>8</v>
@@ -879,16 +859,17 @@
       <c r="D20" t="s">
         <v>9</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20">
         <v>-10</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="3">
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="7">
-        <v>45666</v>
+      <c r="B21" s="3">
+        <v>45582</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -896,16 +877,17 @@
       <c r="D21" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21">
         <v>-11</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="3">
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="7">
-        <v>45667</v>
+      <c r="B22" s="3">
+        <v>45583</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -913,16 +895,17 @@
       <c r="D22" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22">
         <v>-8</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="3">
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="7">
-        <v>45667</v>
+      <c r="B23" s="3">
+        <v>45583</v>
       </c>
       <c r="C23" t="s">
         <v>8</v>
@@ -930,16 +913,17 @@
       <c r="D23" t="s">
         <v>9</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23">
         <v>-13</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="3">
+      <c r="F23" s="3"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="7">
-        <v>45668</v>
+      <c r="B24" s="3">
+        <v>45584</v>
       </c>
       <c r="C24" t="s">
         <v>8</v>
@@ -947,16 +931,17 @@
       <c r="D24" t="s">
         <v>14</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24">
         <v>-41</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="3">
+      <c r="F24" s="3"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="7">
-        <v>45669</v>
+      <c r="B25" s="3">
+        <v>45585</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -964,16 +949,17 @@
       <c r="D25" t="s">
         <v>7</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25">
         <v>-1.5</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="3">
+      <c r="F25" s="3"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="7">
-        <v>45669</v>
+      <c r="B26" s="3">
+        <v>45585</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -981,16 +967,17 @@
       <c r="D26" t="s">
         <v>6</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26">
         <v>-2</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="3">
+      <c r="F26" s="3"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="7">
-        <v>45669</v>
+      <c r="B27" s="3">
+        <v>45585</v>
       </c>
       <c r="C27" t="s">
         <v>8</v>
@@ -998,16 +985,17 @@
       <c r="D27" t="s">
         <v>9</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27">
         <v>-12</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="3">
+      <c r="F27" s="3"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="7">
-        <v>45670</v>
+      <c r="B28" s="3">
+        <v>45586</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
@@ -1015,16 +1003,17 @@
       <c r="D28" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E28">
         <v>-18</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="3">
+      <c r="F28" s="3"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="7">
-        <v>45672</v>
+      <c r="B29" s="3">
+        <v>45588</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
@@ -1032,16 +1021,17 @@
       <c r="D29" t="s">
         <v>7</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29">
         <v>-2</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="3">
+      <c r="F29" s="3"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="7">
-        <v>45672</v>
+      <c r="B30" s="3">
+        <v>45588</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
@@ -1049,16 +1039,17 @@
       <c r="D30" t="s">
         <v>7</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E30">
         <v>-2.5</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="3">
+      <c r="F30" s="3"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="7">
-        <v>45672</v>
+      <c r="B31" s="3">
+        <v>45588</v>
       </c>
       <c r="C31" t="s">
         <v>8</v>
@@ -1066,16 +1057,17 @@
       <c r="D31" t="s">
         <v>13</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E31">
         <v>-9</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="3">
+      <c r="F31" s="3"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="7">
-        <v>45672</v>
+      <c r="B32" s="3">
+        <v>45588</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
@@ -1083,16 +1075,17 @@
       <c r="D32" t="s">
         <v>10</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32">
         <v>-20</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="3">
+      <c r="F32" s="3"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" s="7">
-        <v>45674</v>
+      <c r="B33" s="3">
+        <v>45590</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -1100,16 +1093,17 @@
       <c r="D33" t="s">
         <v>6</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E33">
         <v>-2</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="3">
+      <c r="F33" s="3"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" s="7">
-        <v>45674</v>
+      <c r="B34" s="3">
+        <v>45590</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
@@ -1117,16 +1111,17 @@
       <c r="D34" t="s">
         <v>10</v>
       </c>
-      <c r="E34" s="3">
+      <c r="E34">
         <v>-18</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="3">
+      <c r="F34" s="3"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" s="7">
-        <v>45675</v>
+      <c r="B35" s="3">
+        <v>45591</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
@@ -1134,16 +1129,17 @@
       <c r="D35" t="s">
         <v>6</v>
       </c>
-      <c r="E35" s="4">
+      <c r="E35">
         <v>-2.5</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="3">
+      <c r="F35" s="3"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" s="7">
-        <v>45675</v>
+      <c r="B36" s="3">
+        <v>45591</v>
       </c>
       <c r="C36" t="s">
         <v>8</v>
@@ -1151,16 +1147,17 @@
       <c r="D36" t="s">
         <v>9</v>
       </c>
-      <c r="E36" s="3">
+      <c r="E36">
         <v>-13</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="3">
+      <c r="F36" s="3"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" s="7">
-        <v>45675</v>
+      <c r="B37" s="3">
+        <v>45591</v>
       </c>
       <c r="C37" t="s">
         <v>8</v>
@@ -1168,16 +1165,17 @@
       <c r="D37" t="s">
         <v>9</v>
       </c>
-      <c r="E37" s="3">
+      <c r="E37">
         <v>-13</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="3">
+      <c r="F37" s="3"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" s="7">
-        <v>45675</v>
+      <c r="B38" s="3">
+        <v>45591</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
@@ -1185,16 +1183,17 @@
       <c r="D38" t="s">
         <v>10</v>
       </c>
-      <c r="E38" s="3">
+      <c r="E38">
         <v>-20</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="3">
+      <c r="F38" s="3"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" s="7">
-        <v>45676</v>
+      <c r="B39" s="3">
+        <v>45592</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
@@ -1202,16 +1201,17 @@
       <c r="D39" t="s">
         <v>6</v>
       </c>
-      <c r="E39" s="4">
+      <c r="E39">
         <v>-1.5</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="3">
+      <c r="F39" s="3"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" s="7">
-        <v>45676</v>
+      <c r="B40" s="3">
+        <v>45592</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
@@ -1219,16 +1219,17 @@
       <c r="D40" t="s">
         <v>6</v>
       </c>
-      <c r="E40" s="3">
+      <c r="E40">
         <v>-2</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="3">
+      <c r="F40" s="3"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" s="7">
-        <v>45676</v>
+      <c r="B41" s="3">
+        <v>45592</v>
       </c>
       <c r="C41" t="s">
         <v>8</v>
@@ -1236,16 +1237,17 @@
       <c r="D41" t="s">
         <v>13</v>
       </c>
-      <c r="E41" s="3">
+      <c r="E41">
         <v>-8</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="3">
+      <c r="F41" s="3"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42" s="7">
-        <v>45676</v>
+      <c r="B42" s="3">
+        <v>45592</v>
       </c>
       <c r="C42" t="s">
         <v>8</v>
@@ -1253,16 +1255,17 @@
       <c r="D42" t="s">
         <v>9</v>
       </c>
-      <c r="E42" s="3">
+      <c r="E42">
         <v>-14</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="3">
+      <c r="F42" s="3"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" s="7">
-        <v>45677</v>
+      <c r="B43" s="3">
+        <v>45593</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
@@ -1270,16 +1273,17 @@
       <c r="D43" t="s">
         <v>7</v>
       </c>
-      <c r="E43" s="3">
+      <c r="E43">
         <v>-2</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="3">
+      <c r="F43" s="3"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" s="7">
-        <v>45677</v>
+      <c r="B44" s="3">
+        <v>45593</v>
       </c>
       <c r="C44" t="s">
         <v>8</v>
@@ -1287,16 +1291,17 @@
       <c r="D44" t="s">
         <v>9</v>
       </c>
-      <c r="E44" s="3">
+      <c r="E44">
         <v>-14</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="3">
+      <c r="F44" s="3"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" s="7">
-        <v>45677</v>
+      <c r="B45" s="3">
+        <v>45593</v>
       </c>
       <c r="C45" t="s">
         <v>15</v>
@@ -1304,16 +1309,17 @@
       <c r="D45" t="s">
         <v>16</v>
       </c>
-      <c r="E45" s="3">
+      <c r="E45">
         <v>1000</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="3">
+      <c r="F45" s="3"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46" s="7">
-        <v>45678</v>
+      <c r="B46" s="3">
+        <v>45594</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
@@ -1321,16 +1327,17 @@
       <c r="D46" t="s">
         <v>7</v>
       </c>
-      <c r="E46" s="4">
+      <c r="E46">
         <v>-2.5</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="3">
+      <c r="F46" s="3"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47" s="7">
-        <v>45678</v>
+      <c r="B47" s="3">
+        <v>45594</v>
       </c>
       <c r="C47" t="s">
         <v>5</v>
@@ -1338,16 +1345,17 @@
       <c r="D47" t="s">
         <v>10</v>
       </c>
-      <c r="E47" s="3">
+      <c r="E47">
         <v>-11</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="3">
+      <c r="F47" s="3"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48" s="7">
-        <v>45679</v>
+      <c r="B48" s="3">
+        <v>45595</v>
       </c>
       <c r="C48" t="s">
         <v>8</v>
@@ -1355,16 +1363,17 @@
       <c r="D48" t="s">
         <v>13</v>
       </c>
-      <c r="E48" s="3">
+      <c r="E48">
         <v>-13</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="3">
+      <c r="F48" s="3"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49" s="7">
-        <v>45679</v>
+      <c r="B49" s="3">
+        <v>45595</v>
       </c>
       <c r="C49" t="s">
         <v>5</v>
@@ -1372,16 +1381,17 @@
       <c r="D49" t="s">
         <v>10</v>
       </c>
-      <c r="E49" s="3">
+      <c r="E49">
         <v>-14</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="3">
+      <c r="F49" s="3"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50" s="7">
-        <v>45681</v>
+      <c r="B50" s="3">
+        <v>45597</v>
       </c>
       <c r="C50" t="s">
         <v>8</v>
@@ -1389,16 +1399,17 @@
       <c r="D50" t="s">
         <v>9</v>
       </c>
-      <c r="E50" s="3">
+      <c r="E50">
         <v>-11</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="3">
+      <c r="F50" s="3"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51" s="7">
-        <v>45681</v>
+      <c r="B51" s="3">
+        <v>45597</v>
       </c>
       <c r="C51" t="s">
         <v>8</v>
@@ -1406,16 +1417,17 @@
       <c r="D51" t="s">
         <v>9</v>
       </c>
-      <c r="E51" s="3">
+      <c r="E51">
         <v>-12</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="3">
+      <c r="F51" s="3"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A52">
         <v>51</v>
       </c>
-      <c r="B52" s="7">
-        <v>45681</v>
+      <c r="B52" s="3">
+        <v>45597</v>
       </c>
       <c r="C52" t="s">
         <v>8</v>
@@ -1423,16 +1435,17 @@
       <c r="D52" t="s">
         <v>14</v>
       </c>
-      <c r="E52" s="3">
+      <c r="E52">
         <v>-32</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="3">
+      <c r="F52" s="3"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A53">
         <v>52</v>
       </c>
-      <c r="B53" s="7">
-        <v>45682</v>
+      <c r="B53" s="3">
+        <v>45598</v>
       </c>
       <c r="C53" t="s">
         <v>5</v>
@@ -1440,16 +1453,17 @@
       <c r="D53" t="s">
         <v>10</v>
       </c>
-      <c r="E53" s="3">
+      <c r="E53">
         <v>-16</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="3">
+      <c r="F53" s="3"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A54">
         <v>53</v>
       </c>
-      <c r="B54" s="7">
-        <v>45682</v>
+      <c r="B54" s="3">
+        <v>45598</v>
       </c>
       <c r="C54" t="s">
         <v>5</v>
@@ -1457,16 +1471,17 @@
       <c r="D54" t="s">
         <v>10</v>
       </c>
-      <c r="E54" s="3">
+      <c r="E54">
         <v>-19</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="3">
+      <c r="F54" s="3"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A55">
         <v>54</v>
       </c>
-      <c r="B55" s="7">
-        <v>45682</v>
+      <c r="B55" s="3">
+        <v>45598</v>
       </c>
       <c r="C55" t="s">
         <v>8</v>
@@ -1474,16 +1489,17 @@
       <c r="D55" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="3">
+      <c r="E55">
         <v>-45</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="3">
+      <c r="F55" s="3"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A56">
         <v>55</v>
       </c>
-      <c r="B56" s="7">
-        <v>45683</v>
+      <c r="B56" s="3">
+        <v>45599</v>
       </c>
       <c r="C56" t="s">
         <v>5</v>
@@ -1491,16 +1507,17 @@
       <c r="D56" t="s">
         <v>7</v>
       </c>
-      <c r="E56" s="4">
+      <c r="E56">
         <v>-2.5</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="3">
+      <c r="F56" s="3"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A57">
         <v>56</v>
       </c>
-      <c r="B57" s="7">
-        <v>45683</v>
+      <c r="B57" s="3">
+        <v>45599</v>
       </c>
       <c r="C57" t="s">
         <v>5</v>
@@ -1508,16 +1525,17 @@
       <c r="D57" t="s">
         <v>7</v>
       </c>
-      <c r="E57" s="4">
+      <c r="E57">
         <v>-2.5</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="3">
+      <c r="F57" s="3"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A58">
         <v>57</v>
       </c>
-      <c r="B58" s="7">
-        <v>45683</v>
+      <c r="B58" s="3">
+        <v>45599</v>
       </c>
       <c r="C58" t="s">
         <v>8</v>
@@ -1525,16 +1543,17 @@
       <c r="D58" t="s">
         <v>13</v>
       </c>
-      <c r="E58" s="3">
+      <c r="E58">
         <v>-8</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="3">
+      <c r="F58" s="3"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A59">
         <v>58</v>
       </c>
-      <c r="B59" s="7">
-        <v>45684</v>
+      <c r="B59" s="3">
+        <v>45600</v>
       </c>
       <c r="C59" t="s">
         <v>8</v>
@@ -1542,16 +1561,17 @@
       <c r="D59" t="s">
         <v>13</v>
       </c>
-      <c r="E59" s="3">
+      <c r="E59">
         <v>-9</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="3">
+      <c r="F59" s="3"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A60">
         <v>59</v>
       </c>
-      <c r="B60" s="7">
-        <v>45684</v>
+      <c r="B60" s="3">
+        <v>45600</v>
       </c>
       <c r="C60" t="s">
         <v>5</v>
@@ -1559,16 +1579,17 @@
       <c r="D60" t="s">
         <v>10</v>
       </c>
-      <c r="E60" s="3">
+      <c r="E60">
         <v>-11</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="3">
+      <c r="F60" s="3"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A61">
         <v>60</v>
       </c>
-      <c r="B61" s="7">
-        <v>45684</v>
+      <c r="B61" s="3">
+        <v>45600</v>
       </c>
       <c r="C61" t="s">
         <v>8</v>
@@ -1576,16 +1597,17 @@
       <c r="D61" t="s">
         <v>14</v>
       </c>
-      <c r="E61" s="3">
+      <c r="E61">
         <v>-72</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="3">
+      <c r="F61" s="3"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A62">
         <v>61</v>
       </c>
-      <c r="B62" s="7">
-        <v>45685</v>
+      <c r="B62" s="3">
+        <v>45601</v>
       </c>
       <c r="C62" t="s">
         <v>5</v>
@@ -1593,16 +1615,17 @@
       <c r="D62" t="s">
         <v>10</v>
       </c>
-      <c r="E62" s="3">
+      <c r="E62">
         <v>-10</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="3">
+      <c r="F62" s="3"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A63">
         <v>62</v>
       </c>
-      <c r="B63" s="7">
-        <v>45685</v>
+      <c r="B63" s="3">
+        <v>45601</v>
       </c>
       <c r="C63" t="s">
         <v>5</v>
@@ -1610,16 +1633,17 @@
       <c r="D63" t="s">
         <v>10</v>
       </c>
-      <c r="E63" s="3">
+      <c r="E63">
         <v>-13</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="3">
+      <c r="F63" s="3"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A64">
         <v>63</v>
       </c>
-      <c r="B64" s="7">
-        <v>45685</v>
+      <c r="B64" s="3">
+        <v>45601</v>
       </c>
       <c r="C64" t="s">
         <v>8</v>
@@ -1627,16 +1651,17 @@
       <c r="D64" t="s">
         <v>14</v>
       </c>
-      <c r="E64" s="3">
+      <c r="E64">
         <v>-56</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="3">
+      <c r="F64" s="3"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A65">
         <v>64</v>
       </c>
-      <c r="B65" s="7">
-        <v>45686</v>
+      <c r="B65" s="3">
+        <v>45602</v>
       </c>
       <c r="C65" t="s">
         <v>5</v>
@@ -1644,16 +1669,17 @@
       <c r="D65" t="s">
         <v>10</v>
       </c>
-      <c r="E65" s="3">
+      <c r="E65">
         <v>-11</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="3">
+      <c r="F65" s="3"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A66">
         <v>65</v>
       </c>
-      <c r="B66" s="7">
-        <v>45686</v>
+      <c r="B66" s="3">
+        <v>45602</v>
       </c>
       <c r="C66" t="s">
         <v>8</v>
@@ -1661,16 +1687,17 @@
       <c r="D66" t="s">
         <v>13</v>
       </c>
-      <c r="E66" s="3">
+      <c r="E66">
         <v>-12</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="3">
+      <c r="F66" s="3"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A67">
         <v>66</v>
       </c>
-      <c r="B67" s="7">
-        <v>45686</v>
+      <c r="B67" s="3">
+        <v>45602</v>
       </c>
       <c r="C67" t="s">
         <v>5</v>
@@ -1678,16 +1705,17 @@
       <c r="D67" t="s">
         <v>10</v>
       </c>
-      <c r="E67" s="3">
+      <c r="E67">
         <v>-17</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="3">
+      <c r="F67" s="3"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A68">
         <v>67</v>
       </c>
-      <c r="B68" s="7">
-        <v>45687</v>
+      <c r="B68" s="3">
+        <v>45603</v>
       </c>
       <c r="C68" t="s">
         <v>8</v>
@@ -1695,16 +1723,17 @@
       <c r="D68" t="s">
         <v>13</v>
       </c>
-      <c r="E68" s="3">
+      <c r="E68">
         <v>-12</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="3">
+      <c r="F68" s="3"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A69">
         <v>68</v>
       </c>
-      <c r="B69" s="7">
-        <v>45688</v>
+      <c r="B69" s="3">
+        <v>45604</v>
       </c>
       <c r="C69" t="s">
         <v>5</v>
@@ -1712,16 +1741,17 @@
       <c r="D69" t="s">
         <v>6</v>
       </c>
-      <c r="E69" s="4">
+      <c r="E69">
         <v>-1.5</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="3">
+      <c r="F69" s="3"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A70">
         <v>69</v>
       </c>
-      <c r="B70" s="7">
-        <v>45688</v>
+      <c r="B70" s="3">
+        <v>45604</v>
       </c>
       <c r="C70" t="s">
         <v>17</v>
@@ -1729,16 +1759,17 @@
       <c r="D70" t="s">
         <v>18</v>
       </c>
-      <c r="E70" s="3">
+      <c r="E70">
         <v>-800</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="3">
+      <c r="F70" s="3"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A71">
         <v>70</v>
       </c>
-      <c r="B71" s="7">
-        <v>45688</v>
+      <c r="B71" s="3">
+        <v>45604</v>
       </c>
       <c r="C71" t="s">
         <v>19</v>
@@ -1746,16 +1777,17 @@
       <c r="D71" t="s">
         <v>20</v>
       </c>
-      <c r="E71" s="4">
+      <c r="E71">
         <v>-14.99</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="3">
+      <c r="F71" s="3"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A72">
         <v>71</v>
       </c>
-      <c r="B72" s="7">
-        <v>45688</v>
+      <c r="B72" s="3">
+        <v>45604</v>
       </c>
       <c r="C72" t="s">
         <v>21</v>
@@ -1763,16 +1795,17 @@
       <c r="D72" t="s">
         <v>22</v>
       </c>
-      <c r="E72" s="4">
+      <c r="E72">
         <v>-40.1</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="3">
+      <c r="F72" s="3"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A73">
         <v>72</v>
       </c>
-      <c r="B73" s="7">
-        <v>45688</v>
+      <c r="B73" s="3">
+        <v>45604</v>
       </c>
       <c r="C73" t="s">
         <v>21</v>
@@ -1780,16 +1813,17 @@
       <c r="D73" t="s">
         <v>23</v>
       </c>
-      <c r="E73" s="4">
+      <c r="E73">
         <v>-51.6</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="3">
+      <c r="F73" s="3"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A74">
         <v>73</v>
       </c>
-      <c r="B74" s="7">
-        <v>45688</v>
+      <c r="B74" s="3">
+        <v>45604</v>
       </c>
       <c r="C74" t="s">
         <v>21</v>
@@ -1797,16 +1831,17 @@
       <c r="D74" t="s">
         <v>24</v>
       </c>
-      <c r="E74" s="3">
+      <c r="E74">
         <v>-20</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="3">
+      <c r="F74" s="3"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A75">
         <v>74</v>
       </c>
-      <c r="B75" s="7">
-        <v>45688</v>
+      <c r="B75" s="3">
+        <v>45604</v>
       </c>
       <c r="C75" t="s">
         <v>25</v>
@@ -1814,16 +1849,17 @@
       <c r="D75" t="s">
         <v>26</v>
       </c>
-      <c r="E75" s="4">
+      <c r="E75">
         <v>102.2</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="3">
+      <c r="F75" s="3"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A76">
         <v>75</v>
       </c>
-      <c r="B76" s="7">
-        <v>45689</v>
+      <c r="B76" s="3">
+        <v>45605</v>
       </c>
       <c r="C76" t="s">
         <v>8</v>
@@ -1831,16 +1867,17 @@
       <c r="D76" t="s">
         <v>9</v>
       </c>
-      <c r="E76" s="3">
+      <c r="E76">
         <v>-12</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="3">
+      <c r="F76" s="3"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A77">
         <v>76</v>
       </c>
-      <c r="B77" s="7">
-        <v>45689</v>
+      <c r="B77" s="3">
+        <v>45605</v>
       </c>
       <c r="C77" t="s">
         <v>8</v>
@@ -1848,16 +1885,17 @@
       <c r="D77" t="s">
         <v>9</v>
       </c>
-      <c r="E77" s="3">
+      <c r="E77">
         <v>-12</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="3">
+      <c r="F77" s="3"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A78">
         <v>77</v>
       </c>
-      <c r="B78" s="7">
-        <v>45689</v>
+      <c r="B78" s="3">
+        <v>45605</v>
       </c>
       <c r="C78" t="s">
         <v>8</v>
@@ -1865,16 +1903,17 @@
       <c r="D78" t="s">
         <v>9</v>
       </c>
-      <c r="E78" s="3">
+      <c r="E78">
         <v>-15</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="3">
+      <c r="F78" s="3"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A79">
         <v>78</v>
       </c>
-      <c r="B79" s="7">
-        <v>45689</v>
+      <c r="B79" s="3">
+        <v>45605</v>
       </c>
       <c r="C79" t="s">
         <v>11</v>
@@ -1882,16 +1921,17 @@
       <c r="D79" t="s">
         <v>12</v>
       </c>
-      <c r="E79" s="3">
+      <c r="E79">
         <v>2500</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="3">
+      <c r="F79" s="3"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A80">
         <v>79</v>
       </c>
-      <c r="B80" s="7">
-        <v>45691</v>
+      <c r="B80" s="3">
+        <v>45607</v>
       </c>
       <c r="C80" t="s">
         <v>5</v>
@@ -1899,16 +1939,17 @@
       <c r="D80" t="s">
         <v>6</v>
       </c>
-      <c r="E80" s="4">
+      <c r="E80">
         <v>-1.5</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="3">
+      <c r="F80" s="3"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A81">
         <v>80</v>
       </c>
-      <c r="B81" s="7">
-        <v>45691</v>
+      <c r="B81" s="3">
+        <v>45607</v>
       </c>
       <c r="C81" t="s">
         <v>5</v>
@@ -1916,16 +1957,17 @@
       <c r="D81" t="s">
         <v>10</v>
       </c>
-      <c r="E81" s="3">
+      <c r="E81">
         <v>-18</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="3">
+      <c r="F81" s="3"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A82">
         <v>81</v>
       </c>
-      <c r="B82" s="7">
-        <v>45692</v>
+      <c r="B82" s="3">
+        <v>45608</v>
       </c>
       <c r="C82" t="s">
         <v>5</v>
@@ -1933,16 +1975,17 @@
       <c r="D82" t="s">
         <v>10</v>
       </c>
-      <c r="E82" s="3">
+      <c r="E82">
         <v>-11</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="3">
+      <c r="F82" s="3"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A83">
         <v>82</v>
       </c>
-      <c r="B83" s="7">
-        <v>45692</v>
+      <c r="B83" s="3">
+        <v>45608</v>
       </c>
       <c r="C83" t="s">
         <v>8</v>
@@ -1950,16 +1993,17 @@
       <c r="D83" t="s">
         <v>9</v>
       </c>
-      <c r="E83" s="3">
+      <c r="E83">
         <v>-14</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="3">
+      <c r="F83" s="3"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A84">
         <v>83</v>
       </c>
-      <c r="B84" s="7">
-        <v>45693</v>
+      <c r="B84" s="3">
+        <v>45609</v>
       </c>
       <c r="C84" t="s">
         <v>5</v>
@@ -1967,16 +2011,17 @@
       <c r="D84" t="s">
         <v>6</v>
       </c>
-      <c r="E84" s="3">
+      <c r="E84">
         <v>-2</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="3">
+      <c r="F84" s="3"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A85">
         <v>84</v>
       </c>
-      <c r="B85" s="7">
-        <v>45693</v>
+      <c r="B85" s="3">
+        <v>45609</v>
       </c>
       <c r="C85" t="s">
         <v>5</v>
@@ -1984,16 +2029,17 @@
       <c r="D85" t="s">
         <v>7</v>
       </c>
-      <c r="E85" s="4">
+      <c r="E85">
         <v>-2.5</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="3">
+      <c r="F85" s="3"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A86">
         <v>85</v>
       </c>
-      <c r="B86" s="7">
-        <v>45694</v>
+      <c r="B86" s="3">
+        <v>45610</v>
       </c>
       <c r="C86" t="s">
         <v>5</v>
@@ -2001,16 +2047,17 @@
       <c r="D86" t="s">
         <v>10</v>
       </c>
-      <c r="E86" s="3">
+      <c r="E86">
         <v>-19</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="3">
+      <c r="F86" s="3"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A87">
         <v>86</v>
       </c>
-      <c r="B87" s="7">
-        <v>45694</v>
+      <c r="B87" s="3">
+        <v>45610</v>
       </c>
       <c r="C87" t="s">
         <v>5</v>
@@ -2018,16 +2065,17 @@
       <c r="D87" t="s">
         <v>10</v>
       </c>
-      <c r="E87" s="3">
+      <c r="E87">
         <v>-20</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="3">
+      <c r="F87" s="3"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A88">
         <v>87</v>
       </c>
-      <c r="B88" s="7">
-        <v>45695</v>
+      <c r="B88" s="3">
+        <v>45611</v>
       </c>
       <c r="C88" t="s">
         <v>8</v>
@@ -2035,16 +2083,17 @@
       <c r="D88" t="s">
         <v>14</v>
       </c>
-      <c r="E88" s="3">
+      <c r="E88">
         <v>-47</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="3">
+      <c r="F88" s="3"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A89">
         <v>88</v>
       </c>
-      <c r="B89" s="7">
-        <v>45696</v>
+      <c r="B89" s="3">
+        <v>45612</v>
       </c>
       <c r="C89" t="s">
         <v>5</v>
@@ -2052,16 +2101,17 @@
       <c r="D89" t="s">
         <v>6</v>
       </c>
-      <c r="E89" s="3">
+      <c r="E89">
         <v>-3</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="3">
+      <c r="F89" s="3"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A90">
         <v>89</v>
       </c>
-      <c r="B90" s="7">
-        <v>45696</v>
+      <c r="B90" s="3">
+        <v>45612</v>
       </c>
       <c r="C90" t="s">
         <v>5</v>
@@ -2069,16 +2119,17 @@
       <c r="D90" t="s">
         <v>10</v>
       </c>
-      <c r="E90" s="3">
+      <c r="E90">
         <v>-18</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="3">
+      <c r="F90" s="3"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A91">
         <v>90</v>
       </c>
-      <c r="B91" s="7">
-        <v>45697</v>
+      <c r="B91" s="3">
+        <v>45613</v>
       </c>
       <c r="C91" t="s">
         <v>5</v>
@@ -2086,16 +2137,17 @@
       <c r="D91" t="s">
         <v>6</v>
       </c>
-      <c r="E91" s="4">
+      <c r="E91">
         <v>-2.5</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="3">
+      <c r="F91" s="3"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A92">
         <v>91</v>
       </c>
-      <c r="B92" s="7">
-        <v>45697</v>
+      <c r="B92" s="3">
+        <v>45613</v>
       </c>
       <c r="C92" t="s">
         <v>8</v>
@@ -2103,16 +2155,17 @@
       <c r="D92" t="s">
         <v>9</v>
       </c>
-      <c r="E92" s="3">
+      <c r="E92">
         <v>-9</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="3">
+      <c r="F92" s="3"/>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A93">
         <v>92</v>
       </c>
-      <c r="B93" s="7">
-        <v>45697</v>
+      <c r="B93" s="3">
+        <v>45613</v>
       </c>
       <c r="C93" t="s">
         <v>8</v>
@@ -2120,16 +2173,17 @@
       <c r="D93" t="s">
         <v>13</v>
       </c>
-      <c r="E93" s="3">
+      <c r="E93">
         <v>-15</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="3">
+      <c r="F93" s="3"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A94">
         <v>93</v>
       </c>
-      <c r="B94" s="7">
-        <v>45698</v>
+      <c r="B94" s="3">
+        <v>45614</v>
       </c>
       <c r="C94" t="s">
         <v>5</v>
@@ -2137,16 +2191,17 @@
       <c r="D94" t="s">
         <v>6</v>
       </c>
-      <c r="E94" s="4">
+      <c r="E94">
         <v>-2.5</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="3">
+      <c r="F94" s="3"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A95">
         <v>94</v>
       </c>
-      <c r="B95" s="7">
-        <v>45698</v>
+      <c r="B95" s="3">
+        <v>45614</v>
       </c>
       <c r="C95" t="s">
         <v>8</v>
@@ -2154,16 +2209,17 @@
       <c r="D95" t="s">
         <v>13</v>
       </c>
-      <c r="E95" s="3">
+      <c r="E95">
         <v>-8</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="3">
+      <c r="F95" s="3"/>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A96">
         <v>95</v>
       </c>
-      <c r="B96" s="7">
-        <v>45698</v>
+      <c r="B96" s="3">
+        <v>45614</v>
       </c>
       <c r="C96" t="s">
         <v>5</v>
@@ -2171,16 +2227,17 @@
       <c r="D96" t="s">
         <v>10</v>
       </c>
-      <c r="E96" s="3">
+      <c r="E96">
         <v>-11</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="3">
+      <c r="F96" s="3"/>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A97">
         <v>96</v>
       </c>
-      <c r="B97" s="7">
-        <v>45699</v>
+      <c r="B97" s="3">
+        <v>45615</v>
       </c>
       <c r="C97" t="s">
         <v>5</v>
@@ -2188,16 +2245,17 @@
       <c r="D97" t="s">
         <v>7</v>
       </c>
-      <c r="E97" s="3">
+      <c r="E97">
         <v>-3</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="3">
+      <c r="F97" s="3"/>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A98">
         <v>97</v>
       </c>
-      <c r="B98" s="7">
-        <v>45699</v>
+      <c r="B98" s="3">
+        <v>45615</v>
       </c>
       <c r="C98" t="s">
         <v>8</v>
@@ -2205,16 +2263,17 @@
       <c r="D98" t="s">
         <v>9</v>
       </c>
-      <c r="E98" s="3">
+      <c r="E98">
         <v>-12</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="3">
+      <c r="F98" s="3"/>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A99">
         <v>98</v>
       </c>
-      <c r="B99" s="7">
-        <v>45701</v>
+      <c r="B99" s="3">
+        <v>45617</v>
       </c>
       <c r="C99" t="s">
         <v>8</v>
@@ -2222,16 +2281,17 @@
       <c r="D99" t="s">
         <v>9</v>
       </c>
-      <c r="E99" s="3">
+      <c r="E99">
         <v>-12</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="3">
+      <c r="F99" s="3"/>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A100">
         <v>99</v>
       </c>
-      <c r="B100" s="7">
-        <v>45701</v>
+      <c r="B100" s="3">
+        <v>45617</v>
       </c>
       <c r="C100" t="s">
         <v>8</v>
@@ -2239,16 +2299,17 @@
       <c r="D100" t="s">
         <v>13</v>
       </c>
-      <c r="E100" s="3">
+      <c r="E100">
         <v>-13</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="3">
+      <c r="F100" s="3"/>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A101">
         <v>100</v>
       </c>
-      <c r="B101" s="7">
-        <v>45702</v>
+      <c r="B101" s="3">
+        <v>45618</v>
       </c>
       <c r="C101" t="s">
         <v>27</v>
@@ -2256,16 +2317,17 @@
       <c r="D101" t="s">
         <v>28</v>
       </c>
-      <c r="E101" s="3">
+      <c r="E101">
         <v>288</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="3">
+      <c r="F101" s="3"/>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A102">
         <v>101</v>
       </c>
-      <c r="B102" s="7">
-        <v>45703</v>
+      <c r="B102" s="3">
+        <v>45619</v>
       </c>
       <c r="C102" t="s">
         <v>5</v>
@@ -2273,16 +2335,17 @@
       <c r="D102" t="s">
         <v>7</v>
       </c>
-      <c r="E102" s="3">
+      <c r="E102">
         <v>-2</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="3">
+      <c r="F102" s="3"/>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A103">
         <v>102</v>
       </c>
-      <c r="B103" s="7">
-        <v>45703</v>
+      <c r="B103" s="3">
+        <v>45619</v>
       </c>
       <c r="C103" t="s">
         <v>5</v>
@@ -2290,16 +2353,17 @@
       <c r="D103" t="s">
         <v>7</v>
       </c>
-      <c r="E103" s="3">
+      <c r="E103">
         <v>-3</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="3">
+      <c r="F103" s="3"/>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A104">
         <v>103</v>
       </c>
-      <c r="B104" s="7">
-        <v>45703</v>
+      <c r="B104" s="3">
+        <v>45619</v>
       </c>
       <c r="C104" t="s">
         <v>5</v>
@@ -2307,16 +2371,17 @@
       <c r="D104" t="s">
         <v>10</v>
       </c>
-      <c r="E104" s="3">
+      <c r="E104">
         <v>-8</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="3">
+      <c r="F104" s="3"/>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A105">
         <v>104</v>
       </c>
-      <c r="B105" s="7">
-        <v>45703</v>
+      <c r="B105" s="3">
+        <v>45619</v>
       </c>
       <c r="C105" t="s">
         <v>8</v>
@@ -2324,16 +2389,17 @@
       <c r="D105" t="s">
         <v>13</v>
       </c>
-      <c r="E105" s="3">
+      <c r="E105">
         <v>-15</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="3">
+      <c r="F105" s="3"/>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A106">
         <v>105</v>
       </c>
-      <c r="B106" s="7">
-        <v>45704</v>
+      <c r="B106" s="3">
+        <v>45620</v>
       </c>
       <c r="C106" t="s">
         <v>5</v>
@@ -2341,16 +2407,17 @@
       <c r="D106" t="s">
         <v>6</v>
       </c>
-      <c r="E106" s="4">
+      <c r="E106">
         <v>-2.5</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="3">
+      <c r="F106" s="3"/>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A107">
         <v>106</v>
       </c>
-      <c r="B107" s="7">
-        <v>45705</v>
+      <c r="B107" s="3">
+        <v>45621</v>
       </c>
       <c r="C107" t="s">
         <v>5</v>
@@ -2358,16 +2425,17 @@
       <c r="D107" t="s">
         <v>6</v>
       </c>
-      <c r="E107" s="3">
+      <c r="E107">
         <v>-3</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="3">
+      <c r="F107" s="3"/>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A108">
         <v>107</v>
       </c>
-      <c r="B108" s="7">
-        <v>45705</v>
+      <c r="B108" s="3">
+        <v>45621</v>
       </c>
       <c r="C108" t="s">
         <v>8</v>
@@ -2375,16 +2443,17 @@
       <c r="D108" t="s">
         <v>14</v>
       </c>
-      <c r="E108" s="3">
+      <c r="E108">
         <v>-48</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="3">
+      <c r="F108" s="3"/>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A109">
         <v>108</v>
       </c>
-      <c r="B109" s="7">
-        <v>45706</v>
+      <c r="B109" s="3">
+        <v>45622</v>
       </c>
       <c r="C109" t="s">
         <v>5</v>
@@ -2392,16 +2461,17 @@
       <c r="D109" t="s">
         <v>7</v>
       </c>
-      <c r="E109" s="3">
+      <c r="E109">
         <v>-2</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="3">
+      <c r="F109" s="3"/>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A110">
         <v>109</v>
       </c>
-      <c r="B110" s="7">
-        <v>45706</v>
+      <c r="B110" s="3">
+        <v>45622</v>
       </c>
       <c r="C110" t="s">
         <v>5</v>
@@ -2409,16 +2479,17 @@
       <c r="D110" t="s">
         <v>7</v>
       </c>
-      <c r="E110" s="4">
+      <c r="E110">
         <v>-2.5</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="3">
+      <c r="F110" s="3"/>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A111">
         <v>110</v>
       </c>
-      <c r="B111" s="7">
-        <v>45706</v>
+      <c r="B111" s="3">
+        <v>45622</v>
       </c>
       <c r="C111" t="s">
         <v>8</v>
@@ -2426,16 +2497,17 @@
       <c r="D111" t="s">
         <v>14</v>
       </c>
-      <c r="E111" s="3">
+      <c r="E111">
         <v>-87</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="3">
+      <c r="F111" s="3"/>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A112">
         <v>111</v>
       </c>
-      <c r="B112" s="7">
-        <v>45707</v>
+      <c r="B112" s="3">
+        <v>45623</v>
       </c>
       <c r="C112" t="s">
         <v>8</v>
@@ -2443,16 +2515,17 @@
       <c r="D112" t="s">
         <v>14</v>
       </c>
-      <c r="E112" s="3">
+      <c r="E112">
         <v>-37</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="3">
+      <c r="F112" s="3"/>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A113">
         <v>112</v>
       </c>
-      <c r="B113" s="7">
-        <v>45708</v>
+      <c r="B113" s="3">
+        <v>45624</v>
       </c>
       <c r="C113" t="s">
         <v>5</v>
@@ -2460,16 +2533,17 @@
       <c r="D113" t="s">
         <v>6</v>
       </c>
-      <c r="E113" s="4">
+      <c r="E113">
         <v>-2.5</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="3">
+      <c r="F113" s="3"/>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A114">
         <v>113</v>
       </c>
-      <c r="B114" s="7">
-        <v>45709</v>
+      <c r="B114" s="3">
+        <v>45625</v>
       </c>
       <c r="C114" t="s">
         <v>8</v>
@@ -2477,16 +2551,17 @@
       <c r="D114" t="s">
         <v>13</v>
       </c>
-      <c r="E114" s="3">
+      <c r="E114">
         <v>-14</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="3">
+      <c r="F114" s="3"/>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A115">
         <v>114</v>
       </c>
-      <c r="B115" s="7">
-        <v>45709</v>
+      <c r="B115" s="3">
+        <v>45625</v>
       </c>
       <c r="C115" t="s">
         <v>5</v>
@@ -2494,16 +2569,17 @@
       <c r="D115" t="s">
         <v>10</v>
       </c>
-      <c r="E115" s="3">
+      <c r="E115">
         <v>-14</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="3">
+      <c r="F115" s="3"/>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A116">
         <v>115</v>
       </c>
-      <c r="B116" s="7">
-        <v>45710</v>
+      <c r="B116" s="3">
+        <v>45626</v>
       </c>
       <c r="C116" t="s">
         <v>8</v>
@@ -2511,16 +2587,17 @@
       <c r="D116" t="s">
         <v>13</v>
       </c>
-      <c r="E116" s="3">
+      <c r="E116">
         <v>-11</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="3">
+      <c r="F116" s="3"/>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A117">
         <v>116</v>
       </c>
-      <c r="B117" s="7">
-        <v>45710</v>
+      <c r="B117" s="3">
+        <v>45626</v>
       </c>
       <c r="C117" t="s">
         <v>8</v>
@@ -2528,16 +2605,17 @@
       <c r="D117" t="s">
         <v>9</v>
       </c>
-      <c r="E117" s="3">
+      <c r="E117">
         <v>-15</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="3">
+      <c r="F117" s="3"/>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A118">
         <v>117</v>
       </c>
-      <c r="B118" s="7">
-        <v>45710</v>
+      <c r="B118" s="3">
+        <v>45626</v>
       </c>
       <c r="C118" t="s">
         <v>8</v>
@@ -2545,16 +2623,17 @@
       <c r="D118" t="s">
         <v>13</v>
       </c>
-      <c r="E118" s="3">
+      <c r="E118">
         <v>-15</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="3">
+      <c r="F118" s="3"/>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A119">
         <v>118</v>
       </c>
-      <c r="B119" s="7">
-        <v>45711</v>
+      <c r="B119" s="3">
+        <v>45627</v>
       </c>
       <c r="C119" t="s">
         <v>8</v>
@@ -2562,16 +2641,17 @@
       <c r="D119" t="s">
         <v>13</v>
       </c>
-      <c r="E119" s="3">
+      <c r="E119">
         <v>-9</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="3">
+      <c r="F119" s="3"/>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A120">
         <v>119</v>
       </c>
-      <c r="B120" s="7">
-        <v>45711</v>
+      <c r="B120" s="3">
+        <v>45627</v>
       </c>
       <c r="C120" t="s">
         <v>5</v>
@@ -2579,16 +2659,17 @@
       <c r="D120" t="s">
         <v>10</v>
       </c>
-      <c r="E120" s="3">
+      <c r="E120">
         <v>-17</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="3">
+      <c r="F120" s="3"/>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A121">
         <v>120</v>
       </c>
-      <c r="B121" s="7">
-        <v>45711</v>
+      <c r="B121" s="3">
+        <v>45627</v>
       </c>
       <c r="C121" t="s">
         <v>8</v>
@@ -2596,16 +2677,17 @@
       <c r="D121" t="s">
         <v>14</v>
       </c>
-      <c r="E121" s="3">
+      <c r="E121">
         <v>-76</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="3">
+      <c r="F121" s="3"/>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A122">
         <v>121</v>
       </c>
-      <c r="B122" s="7">
-        <v>45712</v>
+      <c r="B122" s="3">
+        <v>45628</v>
       </c>
       <c r="C122" t="s">
         <v>5</v>
@@ -2613,16 +2695,17 @@
       <c r="D122" t="s">
         <v>6</v>
       </c>
-      <c r="E122" s="4">
+      <c r="E122">
         <v>-1.5</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="3">
+      <c r="F122" s="3"/>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A123">
         <v>122</v>
       </c>
-      <c r="B123" s="7">
-        <v>45712</v>
+      <c r="B123" s="3">
+        <v>45628</v>
       </c>
       <c r="C123" t="s">
         <v>5</v>
@@ -2630,16 +2713,17 @@
       <c r="D123" t="s">
         <v>7</v>
       </c>
-      <c r="E123" s="4">
+      <c r="E123">
         <v>-2.5</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="3">
+      <c r="F123" s="3"/>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A124">
         <v>123</v>
       </c>
-      <c r="B124" s="7">
-        <v>45713</v>
+      <c r="B124" s="3">
+        <v>45629</v>
       </c>
       <c r="C124" t="s">
         <v>5</v>
@@ -2647,16 +2731,17 @@
       <c r="D124" t="s">
         <v>6</v>
       </c>
-      <c r="E124" s="3">
+      <c r="E124">
         <v>-3</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="3">
+      <c r="F124" s="3"/>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A125">
         <v>124</v>
       </c>
-      <c r="B125" s="7">
-        <v>45714</v>
+      <c r="B125" s="3">
+        <v>45630</v>
       </c>
       <c r="C125" t="s">
         <v>5</v>
@@ -2664,16 +2749,17 @@
       <c r="D125" t="s">
         <v>7</v>
       </c>
-      <c r="E125" s="4">
+      <c r="E125">
         <v>-1.5</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="3">
+      <c r="F125" s="3"/>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A126">
         <v>125</v>
       </c>
-      <c r="B126" s="7">
-        <v>45714</v>
+      <c r="B126" s="3">
+        <v>45630</v>
       </c>
       <c r="C126" t="s">
         <v>8</v>
@@ -2681,16 +2767,17 @@
       <c r="D126" t="s">
         <v>9</v>
       </c>
-      <c r="E126" s="3">
+      <c r="E126">
         <v>-11</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="3">
+      <c r="F126" s="3"/>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A127">
         <v>126</v>
       </c>
-      <c r="B127" s="7">
-        <v>45716</v>
+      <c r="B127" s="3">
+        <v>45632</v>
       </c>
       <c r="C127" t="s">
         <v>5</v>
@@ -2698,16 +2785,17 @@
       <c r="D127" t="s">
         <v>6</v>
       </c>
-      <c r="E127" s="4">
+      <c r="E127">
         <v>-2.5</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="3">
+      <c r="F127" s="3"/>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A128">
         <v>127</v>
       </c>
-      <c r="B128" s="7">
-        <v>45716</v>
+      <c r="B128" s="3">
+        <v>45632</v>
       </c>
       <c r="C128" t="s">
         <v>8</v>
@@ -2715,16 +2803,17 @@
       <c r="D128" t="s">
         <v>9</v>
       </c>
-      <c r="E128" s="3">
+      <c r="E128">
         <v>-15</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="3">
+      <c r="F128" s="3"/>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A129">
         <v>128</v>
       </c>
-      <c r="B129" s="7">
-        <v>45716</v>
+      <c r="B129" s="3">
+        <v>45632</v>
       </c>
       <c r="C129" t="s">
         <v>5</v>
@@ -2732,16 +2821,17 @@
       <c r="D129" t="s">
         <v>10</v>
       </c>
-      <c r="E129" s="3">
+      <c r="E129">
         <v>-20</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="3">
+      <c r="F129" s="3"/>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A130">
         <v>129</v>
       </c>
-      <c r="B130" s="7">
-        <v>45716</v>
+      <c r="B130" s="3">
+        <v>45632</v>
       </c>
       <c r="C130" t="s">
         <v>17</v>
@@ -2749,16 +2839,17 @@
       <c r="D130" t="s">
         <v>18</v>
       </c>
-      <c r="E130" s="3">
+      <c r="E130">
         <v>-800</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="3">
+      <c r="F130" s="3"/>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A131">
         <v>130</v>
       </c>
-      <c r="B131" s="7">
-        <v>45716</v>
+      <c r="B131" s="3">
+        <v>45632</v>
       </c>
       <c r="C131" t="s">
         <v>19</v>
@@ -2766,16 +2857,17 @@
       <c r="D131" t="s">
         <v>20</v>
       </c>
-      <c r="E131" s="4">
+      <c r="E131">
         <v>-14.99</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="3">
+      <c r="F131" s="3"/>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A132">
         <v>131</v>
       </c>
-      <c r="B132" s="7">
-        <v>45716</v>
+      <c r="B132" s="3">
+        <v>45632</v>
       </c>
       <c r="C132" t="s">
         <v>21</v>
@@ -2783,16 +2875,17 @@
       <c r="D132" t="s">
         <v>22</v>
       </c>
-      <c r="E132" s="4">
+      <c r="E132">
         <v>-40.700000000000003</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="3">
+      <c r="F132" s="3"/>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A133">
         <v>132</v>
       </c>
-      <c r="B133" s="7">
-        <v>45716</v>
+      <c r="B133" s="3">
+        <v>45632</v>
       </c>
       <c r="C133" t="s">
         <v>21</v>
@@ -2800,16 +2893,17 @@
       <c r="D133" t="s">
         <v>23</v>
       </c>
-      <c r="E133" s="3">
+      <c r="E133">
         <v>-49</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="3">
+      <c r="F133" s="3"/>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A134">
         <v>133</v>
       </c>
-      <c r="B134" s="7">
-        <v>45716</v>
+      <c r="B134" s="3">
+        <v>45632</v>
       </c>
       <c r="C134" t="s">
         <v>21</v>
@@ -2817,16 +2911,17 @@
       <c r="D134" t="s">
         <v>24</v>
       </c>
-      <c r="E134" s="3">
+      <c r="E134">
         <v>-20</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="3">
+      <c r="F134" s="3"/>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A135">
         <v>134</v>
       </c>
-      <c r="B135" s="7">
-        <v>45716</v>
+      <c r="B135" s="3">
+        <v>45632</v>
       </c>
       <c r="C135" t="s">
         <v>25</v>
@@ -2834,16 +2929,17 @@
       <c r="D135" t="s">
         <v>26</v>
       </c>
-      <c r="E135" s="4">
+      <c r="E135">
         <v>58.7</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="3">
+      <c r="F135" s="3"/>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A136">
         <v>135</v>
       </c>
-      <c r="B136" s="7">
-        <v>45717</v>
+      <c r="B136" s="3">
+        <v>45633</v>
       </c>
       <c r="C136" t="s">
         <v>5</v>
@@ -2851,16 +2947,17 @@
       <c r="D136" t="s">
         <v>6</v>
       </c>
-      <c r="E136" s="3">
+      <c r="E136">
         <v>-3</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="3">
+      <c r="F136" s="3"/>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A137">
         <v>136</v>
       </c>
-      <c r="B137" s="7">
-        <v>45717</v>
+      <c r="B137" s="3">
+        <v>45633</v>
       </c>
       <c r="C137" t="s">
         <v>5</v>
@@ -2868,16 +2965,17 @@
       <c r="D137" t="s">
         <v>10</v>
       </c>
-      <c r="E137" s="3">
+      <c r="E137">
         <v>-14</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="3">
+      <c r="F137" s="3"/>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A138">
         <v>137</v>
       </c>
-      <c r="B138" s="7">
-        <v>45717</v>
+      <c r="B138" s="3">
+        <v>45633</v>
       </c>
       <c r="C138" t="s">
         <v>11</v>
@@ -2885,16 +2983,17 @@
       <c r="D138" t="s">
         <v>12</v>
       </c>
-      <c r="E138" s="3">
+      <c r="E138">
         <v>2500</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="3">
+      <c r="F138" s="3"/>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A139">
         <v>138</v>
       </c>
-      <c r="B139" s="7">
-        <v>45718</v>
+      <c r="B139" s="3">
+        <v>45634</v>
       </c>
       <c r="C139" t="s">
         <v>5</v>
@@ -2902,16 +3001,17 @@
       <c r="D139" t="s">
         <v>7</v>
       </c>
-      <c r="E139" s="3">
+      <c r="E139">
         <v>-3</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="3">
+      <c r="F139" s="3"/>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A140">
         <v>139</v>
       </c>
-      <c r="B140" s="7">
-        <v>45719</v>
+      <c r="B140" s="3">
+        <v>45635</v>
       </c>
       <c r="C140" t="s">
         <v>8</v>
@@ -2919,16 +3019,17 @@
       <c r="D140" t="s">
         <v>13</v>
       </c>
-      <c r="E140" s="3">
+      <c r="E140">
         <v>-9</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="3">
+      <c r="F140" s="3"/>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A141">
         <v>140</v>
       </c>
-      <c r="B141" s="7">
-        <v>45719</v>
+      <c r="B141" s="3">
+        <v>45635</v>
       </c>
       <c r="C141" t="s">
         <v>8</v>
@@ -2936,16 +3037,17 @@
       <c r="D141" t="s">
         <v>14</v>
       </c>
-      <c r="E141" s="3">
+      <c r="E141">
         <v>-37</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="3">
+      <c r="F141" s="3"/>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A142">
         <v>141</v>
       </c>
-      <c r="B142" s="7">
-        <v>45719</v>
+      <c r="B142" s="3">
+        <v>45635</v>
       </c>
       <c r="C142" t="s">
         <v>8</v>
@@ -2953,16 +3055,17 @@
       <c r="D142" t="s">
         <v>14</v>
       </c>
-      <c r="E142" s="3">
+      <c r="E142">
         <v>-98</v>
       </c>
-    </row>
-    <row r="143" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="3">
+      <c r="F142" s="3"/>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A143">
         <v>142</v>
       </c>
-      <c r="B143" s="7">
-        <v>45720</v>
+      <c r="B143" s="3">
+        <v>45636</v>
       </c>
       <c r="C143" t="s">
         <v>5</v>
@@ -2970,16 +3073,17 @@
       <c r="D143" t="s">
         <v>6</v>
       </c>
-      <c r="E143" s="4">
+      <c r="E143">
         <v>-2.5</v>
       </c>
-    </row>
-    <row r="144" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="3">
+      <c r="F143" s="3"/>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A144">
         <v>143</v>
       </c>
-      <c r="B144" s="7">
-        <v>45720</v>
+      <c r="B144" s="3">
+        <v>45636</v>
       </c>
       <c r="C144" t="s">
         <v>5</v>
@@ -2987,16 +3091,17 @@
       <c r="D144" t="s">
         <v>6</v>
       </c>
-      <c r="E144" s="4">
+      <c r="E144">
         <v>-2.5</v>
       </c>
-    </row>
-    <row r="145" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="3">
+      <c r="F144" s="3"/>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A145">
         <v>144</v>
       </c>
-      <c r="B145" s="7">
-        <v>45720</v>
+      <c r="B145" s="3">
+        <v>45636</v>
       </c>
       <c r="C145" t="s">
         <v>5</v>
@@ -3004,16 +3109,17 @@
       <c r="D145" t="s">
         <v>6</v>
       </c>
-      <c r="E145" s="3">
+      <c r="E145">
         <v>-3</v>
       </c>
-    </row>
-    <row r="146" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="3">
+      <c r="F145" s="3"/>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A146">
         <v>145</v>
       </c>
-      <c r="B146" s="7">
-        <v>45720</v>
+      <c r="B146" s="3">
+        <v>45636</v>
       </c>
       <c r="C146" t="s">
         <v>8</v>
@@ -3021,16 +3127,17 @@
       <c r="D146" t="s">
         <v>9</v>
       </c>
-      <c r="E146" s="3">
+      <c r="E146">
         <v>-10</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="3">
+      <c r="F146" s="3"/>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A147">
         <v>146</v>
       </c>
-      <c r="B147" s="7">
-        <v>45721</v>
+      <c r="B147" s="3">
+        <v>45637</v>
       </c>
       <c r="C147" t="s">
         <v>5</v>
@@ -3038,16 +3145,17 @@
       <c r="D147" t="s">
         <v>6</v>
       </c>
-      <c r="E147" s="3">
+      <c r="E147">
         <v>-2</v>
       </c>
-    </row>
-    <row r="148" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="3">
+      <c r="F147" s="3"/>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A148">
         <v>147</v>
       </c>
-      <c r="B148" s="7">
-        <v>45722</v>
+      <c r="B148" s="3">
+        <v>45638</v>
       </c>
       <c r="C148" t="s">
         <v>5</v>
@@ -3055,16 +3163,17 @@
       <c r="D148" t="s">
         <v>7</v>
       </c>
-      <c r="E148" s="4">
+      <c r="E148">
         <v>-1.5</v>
       </c>
-    </row>
-    <row r="149" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="3">
+      <c r="F148" s="3"/>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A149">
         <v>148</v>
       </c>
-      <c r="B149" s="7">
-        <v>45722</v>
+      <c r="B149" s="3">
+        <v>45638</v>
       </c>
       <c r="C149" t="s">
         <v>5</v>
@@ -3072,16 +3181,17 @@
       <c r="D149" t="s">
         <v>6</v>
       </c>
-      <c r="E149" s="4">
+      <c r="E149">
         <v>-1.5</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="3">
+      <c r="F149" s="3"/>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A150">
         <v>149</v>
       </c>
-      <c r="B150" s="7">
-        <v>45723</v>
+      <c r="B150" s="3">
+        <v>45639</v>
       </c>
       <c r="C150" t="s">
         <v>5</v>
@@ -3089,16 +3199,17 @@
       <c r="D150" t="s">
         <v>6</v>
       </c>
-      <c r="E150" s="4">
+      <c r="E150">
         <v>-1.5</v>
       </c>
-    </row>
-    <row r="151" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="3">
+      <c r="F150" s="3"/>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A151">
         <v>150</v>
       </c>
-      <c r="B151" s="7">
-        <v>45723</v>
+      <c r="B151" s="3">
+        <v>45639</v>
       </c>
       <c r="C151" t="s">
         <v>8</v>
@@ -3106,16 +3217,17 @@
       <c r="D151" t="s">
         <v>14</v>
       </c>
-      <c r="E151" s="3">
+      <c r="E151">
         <v>-56</v>
       </c>
-    </row>
-    <row r="152" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="3">
+      <c r="F151" s="3"/>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A152">
         <v>151</v>
       </c>
-      <c r="B152" s="7">
-        <v>45724</v>
+      <c r="B152" s="3">
+        <v>45640</v>
       </c>
       <c r="C152" t="s">
         <v>8</v>
@@ -3123,16 +3235,17 @@
       <c r="D152" t="s">
         <v>9</v>
       </c>
-      <c r="E152" s="3">
+      <c r="E152">
         <v>-15</v>
       </c>
-    </row>
-    <row r="153" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="3">
+      <c r="F152" s="3"/>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A153">
         <v>152</v>
       </c>
-      <c r="B153" s="7">
-        <v>45726</v>
+      <c r="B153" s="3">
+        <v>45642</v>
       </c>
       <c r="C153" t="s">
         <v>5</v>
@@ -3140,16 +3253,17 @@
       <c r="D153" t="s">
         <v>7</v>
       </c>
-      <c r="E153" s="4">
+      <c r="E153">
         <v>-1.5</v>
       </c>
-    </row>
-    <row r="154" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="3">
+      <c r="F153" s="3"/>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A154">
         <v>153</v>
       </c>
-      <c r="B154" s="7">
-        <v>45726</v>
+      <c r="B154" s="3">
+        <v>45642</v>
       </c>
       <c r="C154" t="s">
         <v>5</v>
@@ -3157,16 +3271,17 @@
       <c r="D154" t="s">
         <v>10</v>
       </c>
-      <c r="E154" s="3">
+      <c r="E154">
         <v>-8</v>
       </c>
-    </row>
-    <row r="155" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="3">
+      <c r="F154" s="3"/>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A155">
         <v>154</v>
       </c>
-      <c r="B155" s="7">
-        <v>45726</v>
+      <c r="B155" s="3">
+        <v>45642</v>
       </c>
       <c r="C155" t="s">
         <v>8</v>
@@ -3174,16 +3289,17 @@
       <c r="D155" t="s">
         <v>13</v>
       </c>
-      <c r="E155" s="3">
+      <c r="E155">
         <v>-12</v>
       </c>
-    </row>
-    <row r="156" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="3">
+      <c r="F155" s="3"/>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A156">
         <v>155</v>
       </c>
-      <c r="B156" s="7">
-        <v>45726</v>
+      <c r="B156" s="3">
+        <v>45642</v>
       </c>
       <c r="C156" t="s">
         <v>5</v>
@@ -3191,16 +3307,17 @@
       <c r="D156" t="s">
         <v>10</v>
       </c>
-      <c r="E156" s="3">
+      <c r="E156">
         <v>-20</v>
       </c>
-    </row>
-    <row r="157" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="3">
+      <c r="F156" s="3"/>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A157">
         <v>156</v>
       </c>
-      <c r="B157" s="7">
-        <v>45727</v>
+      <c r="B157" s="3">
+        <v>45643</v>
       </c>
       <c r="C157" t="s">
         <v>5</v>
@@ -3208,16 +3325,17 @@
       <c r="D157" t="s">
         <v>10</v>
       </c>
-      <c r="E157" s="3">
+      <c r="E157">
         <v>-11</v>
       </c>
-    </row>
-    <row r="158" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="3">
+      <c r="F157" s="3"/>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A158">
         <v>157</v>
       </c>
-      <c r="B158" s="7">
-        <v>45727</v>
+      <c r="B158" s="3">
+        <v>45643</v>
       </c>
       <c r="C158" t="s">
         <v>8</v>
@@ -3225,16 +3343,17 @@
       <c r="D158" t="s">
         <v>9</v>
       </c>
-      <c r="E158" s="3">
+      <c r="E158">
         <v>-14</v>
       </c>
-    </row>
-    <row r="159" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="3">
+      <c r="F158" s="3"/>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A159">
         <v>158</v>
       </c>
-      <c r="B159" s="7">
-        <v>45728</v>
+      <c r="B159" s="3">
+        <v>45644</v>
       </c>
       <c r="C159" t="s">
         <v>8</v>
@@ -3242,16 +3361,17 @@
       <c r="D159" t="s">
         <v>9</v>
       </c>
-      <c r="E159" s="3">
+      <c r="E159">
         <v>-9</v>
       </c>
-    </row>
-    <row r="160" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="3">
+      <c r="F159" s="3"/>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A160">
         <v>159</v>
       </c>
-      <c r="B160" s="7">
-        <v>45728</v>
+      <c r="B160" s="3">
+        <v>45644</v>
       </c>
       <c r="C160" t="s">
         <v>5</v>
@@ -3259,16 +3379,17 @@
       <c r="D160" t="s">
         <v>10</v>
       </c>
-      <c r="E160" s="3">
+      <c r="E160">
         <v>-10</v>
       </c>
-    </row>
-    <row r="161" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="3">
+      <c r="F160" s="3"/>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A161">
         <v>160</v>
       </c>
-      <c r="B161" s="7">
-        <v>45728</v>
+      <c r="B161" s="3">
+        <v>45644</v>
       </c>
       <c r="C161" t="s">
         <v>5</v>
@@ -3276,16 +3397,17 @@
       <c r="D161" t="s">
         <v>10</v>
       </c>
-      <c r="E161" s="3">
+      <c r="E161">
         <v>-20</v>
       </c>
-    </row>
-    <row r="162" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A162" s="3">
+      <c r="F161" s="3"/>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A162">
         <v>161</v>
       </c>
-      <c r="B162" s="7">
-        <v>45729</v>
+      <c r="B162" s="3">
+        <v>45645</v>
       </c>
       <c r="C162" t="s">
         <v>5</v>
@@ -3293,16 +3415,17 @@
       <c r="D162" t="s">
         <v>7</v>
       </c>
-      <c r="E162" s="3">
+      <c r="E162">
         <v>-3</v>
       </c>
-    </row>
-    <row r="163" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="3">
+      <c r="F162" s="3"/>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A163">
         <v>162</v>
       </c>
-      <c r="B163" s="7">
-        <v>45729</v>
+      <c r="B163" s="3">
+        <v>45645</v>
       </c>
       <c r="C163" t="s">
         <v>8</v>
@@ -3310,16 +3433,17 @@
       <c r="D163" t="s">
         <v>14</v>
       </c>
-      <c r="E163" s="3">
+      <c r="E163">
         <v>-80</v>
       </c>
-    </row>
-    <row r="164" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="3">
+      <c r="F163" s="3"/>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A164">
         <v>163</v>
       </c>
-      <c r="B164" s="7">
-        <v>45730</v>
+      <c r="B164" s="3">
+        <v>45646</v>
       </c>
       <c r="C164" t="s">
         <v>8</v>
@@ -3327,16 +3451,17 @@
       <c r="D164" t="s">
         <v>14</v>
       </c>
-      <c r="E164" s="3">
+      <c r="E164">
         <v>-97</v>
       </c>
-    </row>
-    <row r="165" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A165" s="3">
+      <c r="F164" s="3"/>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A165">
         <v>164</v>
       </c>
-      <c r="B165" s="7">
-        <v>45732</v>
+      <c r="B165" s="3">
+        <v>45648</v>
       </c>
       <c r="C165" t="s">
         <v>5</v>
@@ -3344,16 +3469,17 @@
       <c r="D165" t="s">
         <v>6</v>
       </c>
-      <c r="E165" s="4">
+      <c r="E165">
         <v>-1.5</v>
       </c>
-    </row>
-    <row r="166" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A166" s="3">
+      <c r="F165" s="3"/>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A166">
         <v>165</v>
       </c>
-      <c r="B166" s="7">
-        <v>45732</v>
+      <c r="B166" s="3">
+        <v>45648</v>
       </c>
       <c r="C166" t="s">
         <v>5</v>
@@ -3361,16 +3487,17 @@
       <c r="D166" t="s">
         <v>10</v>
       </c>
-      <c r="E166" s="3">
+      <c r="E166">
         <v>-11</v>
       </c>
-    </row>
-    <row r="167" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="3">
+      <c r="F166" s="3"/>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A167">
         <v>166</v>
       </c>
-      <c r="B167" s="7">
-        <v>45732</v>
+      <c r="B167" s="3">
+        <v>45648</v>
       </c>
       <c r="C167" t="s">
         <v>8</v>
@@ -3378,16 +3505,17 @@
       <c r="D167" t="s">
         <v>9</v>
       </c>
-      <c r="E167" s="3">
+      <c r="E167">
         <v>-12</v>
       </c>
-    </row>
-    <row r="168" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A168" s="3">
+      <c r="F167" s="3"/>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A168">
         <v>167</v>
       </c>
-      <c r="B168" s="7">
-        <v>45733</v>
+      <c r="B168" s="3">
+        <v>45649</v>
       </c>
       <c r="C168" t="s">
         <v>8</v>
@@ -3395,16 +3523,17 @@
       <c r="D168" t="s">
         <v>9</v>
       </c>
-      <c r="E168" s="3">
+      <c r="E168">
         <v>-10</v>
       </c>
-    </row>
-    <row r="169" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A169" s="3">
+      <c r="F168" s="3"/>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A169">
         <v>168</v>
       </c>
-      <c r="B169" s="7">
-        <v>45733</v>
+      <c r="B169" s="3">
+        <v>45649</v>
       </c>
       <c r="C169" t="s">
         <v>8</v>
@@ -3412,16 +3541,17 @@
       <c r="D169" t="s">
         <v>14</v>
       </c>
-      <c r="E169" s="3">
+      <c r="E169">
         <v>-98</v>
       </c>
-    </row>
-    <row r="170" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A170" s="3">
+      <c r="F169" s="3"/>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A170">
         <v>169</v>
       </c>
-      <c r="B170" s="7">
-        <v>45734</v>
+      <c r="B170" s="3">
+        <v>45650</v>
       </c>
       <c r="C170" t="s">
         <v>5</v>
@@ -3429,16 +3559,17 @@
       <c r="D170" t="s">
         <v>7</v>
       </c>
-      <c r="E170" s="4">
+      <c r="E170">
         <v>-2.5</v>
       </c>
-    </row>
-    <row r="171" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="3">
+      <c r="F170" s="3"/>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A171">
         <v>170</v>
       </c>
-      <c r="B171" s="7">
-        <v>45734</v>
+      <c r="B171" s="3">
+        <v>45650</v>
       </c>
       <c r="C171" t="s">
         <v>5</v>
@@ -3446,16 +3577,17 @@
       <c r="D171" t="s">
         <v>7</v>
       </c>
-      <c r="E171" s="3">
+      <c r="E171">
         <v>-3</v>
       </c>
-    </row>
-    <row r="172" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A172" s="3">
+      <c r="F171" s="3"/>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A172">
         <v>171</v>
       </c>
-      <c r="B172" s="7">
-        <v>45734</v>
+      <c r="B172" s="3">
+        <v>45650</v>
       </c>
       <c r="C172" t="s">
         <v>5</v>
@@ -3463,16 +3595,17 @@
       <c r="D172" t="s">
         <v>10</v>
       </c>
-      <c r="E172" s="3">
+      <c r="E172">
         <v>-8</v>
       </c>
-    </row>
-    <row r="173" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A173" s="3">
+      <c r="F172" s="3"/>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A173">
         <v>172</v>
       </c>
-      <c r="B173" s="7">
-        <v>45734</v>
+      <c r="B173" s="3">
+        <v>45650</v>
       </c>
       <c r="C173" t="s">
         <v>8</v>
@@ -3480,16 +3613,17 @@
       <c r="D173" t="s">
         <v>9</v>
       </c>
-      <c r="E173" s="3">
+      <c r="E173">
         <v>-9</v>
       </c>
-    </row>
-    <row r="174" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A174" s="3">
+      <c r="F173" s="3"/>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A174">
         <v>173</v>
       </c>
-      <c r="B174" s="7">
-        <v>45734</v>
+      <c r="B174" s="3">
+        <v>45650</v>
       </c>
       <c r="C174" t="s">
         <v>8</v>
@@ -3497,16 +3631,17 @@
       <c r="D174" t="s">
         <v>13</v>
       </c>
-      <c r="E174" s="3">
+      <c r="E174">
         <v>-11</v>
       </c>
-    </row>
-    <row r="175" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A175" s="3">
+      <c r="F174" s="3"/>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A175">
         <v>174</v>
       </c>
-      <c r="B175" s="7">
-        <v>45734</v>
+      <c r="B175" s="3">
+        <v>45650</v>
       </c>
       <c r="C175" t="s">
         <v>5</v>
@@ -3514,16 +3649,17 @@
       <c r="D175" t="s">
         <v>10</v>
       </c>
-      <c r="E175" s="3">
+      <c r="E175">
         <v>-14</v>
       </c>
-    </row>
-    <row r="176" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A176" s="3">
+      <c r="F175" s="3"/>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A176">
         <v>175</v>
       </c>
-      <c r="B176" s="7">
-        <v>45735</v>
+      <c r="B176" s="3">
+        <v>45651</v>
       </c>
       <c r="C176" t="s">
         <v>5</v>
@@ -3531,16 +3667,17 @@
       <c r="D176" t="s">
         <v>6</v>
       </c>
-      <c r="E176" s="4">
+      <c r="E176">
         <v>-2.5</v>
       </c>
-    </row>
-    <row r="177" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A177" s="3">
+      <c r="F176" s="3"/>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A177">
         <v>176</v>
       </c>
-      <c r="B177" s="7">
-        <v>45735</v>
+      <c r="B177" s="3">
+        <v>45651</v>
       </c>
       <c r="C177" t="s">
         <v>5</v>
@@ -3548,16 +3685,17 @@
       <c r="D177" t="s">
         <v>6</v>
       </c>
-      <c r="E177" s="3">
+      <c r="E177">
         <v>-3</v>
       </c>
-    </row>
-    <row r="178" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="3">
+      <c r="F177" s="3"/>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A178">
         <v>177</v>
       </c>
-      <c r="B178" s="7">
-        <v>45736</v>
+      <c r="B178" s="3">
+        <v>45652</v>
       </c>
       <c r="C178" t="s">
         <v>5</v>
@@ -3565,16 +3703,17 @@
       <c r="D178" t="s">
         <v>6</v>
       </c>
-      <c r="E178" s="4">
+      <c r="E178">
         <v>-2.5</v>
       </c>
-    </row>
-    <row r="179" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A179" s="3">
+      <c r="F178" s="3"/>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A179">
         <v>178</v>
       </c>
-      <c r="B179" s="7">
-        <v>45736</v>
+      <c r="B179" s="3">
+        <v>45652</v>
       </c>
       <c r="C179" t="s">
         <v>8</v>
@@ -3582,16 +3721,17 @@
       <c r="D179" t="s">
         <v>9</v>
       </c>
-      <c r="E179" s="3">
+      <c r="E179">
         <v>-8</v>
       </c>
-    </row>
-    <row r="180" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A180" s="3">
+      <c r="F179" s="3"/>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A180">
         <v>179</v>
       </c>
-      <c r="B180" s="7">
-        <v>45737</v>
+      <c r="B180" s="3">
+        <v>45653</v>
       </c>
       <c r="C180" t="s">
         <v>5</v>
@@ -3599,16 +3739,17 @@
       <c r="D180" t="s">
         <v>6</v>
       </c>
-      <c r="E180" s="4">
+      <c r="E180">
         <v>-1.5</v>
       </c>
-    </row>
-    <row r="181" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A181" s="3">
+      <c r="F180" s="3"/>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A181">
         <v>180</v>
       </c>
-      <c r="B181" s="7">
-        <v>45737</v>
+      <c r="B181" s="3">
+        <v>45653</v>
       </c>
       <c r="C181" t="s">
         <v>5</v>
@@ -3616,16 +3757,17 @@
       <c r="D181" t="s">
         <v>6</v>
       </c>
-      <c r="E181" s="3">
+      <c r="E181">
         <v>-2</v>
       </c>
-    </row>
-    <row r="182" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A182" s="3">
+      <c r="F181" s="3"/>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A182">
         <v>181</v>
       </c>
-      <c r="B182" s="7">
-        <v>45737</v>
+      <c r="B182" s="3">
+        <v>45653</v>
       </c>
       <c r="C182" t="s">
         <v>5</v>
@@ -3633,16 +3775,17 @@
       <c r="D182" t="s">
         <v>10</v>
       </c>
-      <c r="E182" s="3">
+      <c r="E182">
         <v>-10</v>
       </c>
-    </row>
-    <row r="183" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A183" s="3">
+      <c r="F182" s="3"/>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A183">
         <v>182</v>
       </c>
-      <c r="B183" s="7">
-        <v>45737</v>
+      <c r="B183" s="3">
+        <v>45653</v>
       </c>
       <c r="C183" t="s">
         <v>8</v>
@@ -3650,16 +3793,17 @@
       <c r="D183" t="s">
         <v>14</v>
       </c>
-      <c r="E183" s="3">
+      <c r="E183">
         <v>-55</v>
       </c>
-    </row>
-    <row r="184" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A184" s="3">
+      <c r="F183" s="3"/>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A184">
         <v>183</v>
       </c>
-      <c r="B184" s="7">
-        <v>45738</v>
+      <c r="B184" s="3">
+        <v>45654</v>
       </c>
       <c r="C184" t="s">
         <v>5</v>
@@ -3667,16 +3811,17 @@
       <c r="D184" t="s">
         <v>10</v>
       </c>
-      <c r="E184" s="3">
+      <c r="E184">
         <v>-18</v>
       </c>
-    </row>
-    <row r="185" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A185" s="3">
+      <c r="F184" s="3"/>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A185">
         <v>184</v>
       </c>
-      <c r="B185" s="7">
-        <v>45738</v>
+      <c r="B185" s="3">
+        <v>45654</v>
       </c>
       <c r="C185" t="s">
         <v>8</v>
@@ -3684,16 +3829,17 @@
       <c r="D185" t="s">
         <v>14</v>
       </c>
-      <c r="E185" s="3">
+      <c r="E185">
         <v>-37</v>
       </c>
-    </row>
-    <row r="186" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A186" s="3">
+      <c r="F185" s="3"/>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A186">
         <v>185</v>
       </c>
-      <c r="B186" s="7">
-        <v>45740</v>
+      <c r="B186" s="3">
+        <v>45656</v>
       </c>
       <c r="C186" t="s">
         <v>5</v>
@@ -3701,16 +3847,17 @@
       <c r="D186" t="s">
         <v>7</v>
       </c>
-      <c r="E186" s="4">
+      <c r="E186">
         <v>-2.5</v>
       </c>
-    </row>
-    <row r="187" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A187" s="3">
+      <c r="F186" s="3"/>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A187">
         <v>186</v>
       </c>
-      <c r="B187" s="7">
-        <v>45740</v>
+      <c r="B187" s="3">
+        <v>45656</v>
       </c>
       <c r="C187" t="s">
         <v>5</v>
@@ -3718,16 +3865,17 @@
       <c r="D187" t="s">
         <v>6</v>
       </c>
-      <c r="E187" s="3">
+      <c r="E187">
         <v>-3</v>
       </c>
-    </row>
-    <row r="188" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A188" s="3">
+      <c r="F187" s="3"/>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A188">
         <v>187</v>
       </c>
-      <c r="B188" s="7">
-        <v>45740</v>
+      <c r="B188" s="3">
+        <v>45656</v>
       </c>
       <c r="C188" t="s">
         <v>8</v>
@@ -3735,16 +3883,17 @@
       <c r="D188" t="s">
         <v>13</v>
       </c>
-      <c r="E188" s="3">
+      <c r="E188">
         <v>-14</v>
       </c>
-    </row>
-    <row r="189" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A189" s="3">
+      <c r="F188" s="3"/>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A189">
         <v>188</v>
       </c>
-      <c r="B189" s="7">
-        <v>45740</v>
+      <c r="B189" s="3">
+        <v>45656</v>
       </c>
       <c r="C189" t="s">
         <v>8</v>
@@ -3752,16 +3901,17 @@
       <c r="D189" t="s">
         <v>14</v>
       </c>
-      <c r="E189" s="3">
+      <c r="E189">
         <v>-33</v>
       </c>
-    </row>
-    <row r="190" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A190" s="3">
+      <c r="F189" s="3"/>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A190">
         <v>189</v>
       </c>
-      <c r="B190" s="7">
-        <v>45740</v>
+      <c r="B190" s="3">
+        <v>45656</v>
       </c>
       <c r="C190" t="s">
         <v>8</v>
@@ -3769,16 +3919,17 @@
       <c r="D190" t="s">
         <v>14</v>
       </c>
-      <c r="E190" s="3">
+      <c r="E190">
         <v>-56</v>
       </c>
-    </row>
-    <row r="191" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A191" s="3">
+      <c r="F190" s="3"/>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A191">
         <v>190</v>
       </c>
-      <c r="B191" s="7">
-        <v>45741</v>
+      <c r="B191" s="3">
+        <v>45657</v>
       </c>
       <c r="C191" t="s">
         <v>5</v>
@@ -3786,16 +3937,17 @@
       <c r="D191" t="s">
         <v>6</v>
       </c>
-      <c r="E191" s="4">
+      <c r="E191">
         <v>-1.5</v>
       </c>
-    </row>
-    <row r="192" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A192" s="3">
+      <c r="F191" s="3"/>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A192">
         <v>191</v>
       </c>
-      <c r="B192" s="7">
-        <v>45741</v>
+      <c r="B192" s="3">
+        <v>45657</v>
       </c>
       <c r="C192" t="s">
         <v>5</v>
@@ -3803,16 +3955,17 @@
       <c r="D192" t="s">
         <v>6</v>
       </c>
-      <c r="E192" s="3">
+      <c r="E192">
         <v>-3</v>
       </c>
-    </row>
-    <row r="193" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A193" s="3">
+      <c r="F192" s="3"/>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A193">
         <v>192</v>
       </c>
-      <c r="B193" s="7">
-        <v>45741</v>
+      <c r="B193" s="3">
+        <v>45657</v>
       </c>
       <c r="C193" t="s">
         <v>8</v>
@@ -3820,16 +3973,17 @@
       <c r="D193" t="s">
         <v>14</v>
       </c>
-      <c r="E193" s="3">
+      <c r="E193">
         <v>-47</v>
       </c>
-    </row>
-    <row r="194" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A194" s="3">
+      <c r="F193" s="3"/>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A194">
         <v>193</v>
       </c>
-      <c r="B194" s="7">
-        <v>45742</v>
+      <c r="B194" s="3">
+        <v>45658</v>
       </c>
       <c r="C194" t="s">
         <v>5</v>
@@ -3837,16 +3991,17 @@
       <c r="D194" t="s">
         <v>7</v>
       </c>
-      <c r="E194" s="4">
+      <c r="E194">
         <v>-2.5</v>
       </c>
-    </row>
-    <row r="195" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A195" s="3">
+      <c r="F194" s="3"/>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A195">
         <v>194</v>
       </c>
-      <c r="B195" s="7">
-        <v>45743</v>
+      <c r="B195" s="3">
+        <v>45659</v>
       </c>
       <c r="C195" t="s">
         <v>5</v>
@@ -3854,16 +4009,17 @@
       <c r="D195" t="s">
         <v>7</v>
       </c>
-      <c r="E195" s="4">
+      <c r="E195">
         <v>-2.5</v>
       </c>
-    </row>
-    <row r="196" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A196" s="3">
+      <c r="F195" s="3"/>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A196">
         <v>195</v>
       </c>
-      <c r="B196" s="7">
-        <v>45743</v>
+      <c r="B196" s="3">
+        <v>45659</v>
       </c>
       <c r="C196" t="s">
         <v>5</v>
@@ -3871,16 +4027,17 @@
       <c r="D196" t="s">
         <v>7</v>
       </c>
-      <c r="E196" s="3">
+      <c r="E196">
         <v>-3</v>
       </c>
-    </row>
-    <row r="197" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A197" s="3">
+      <c r="F196" s="3"/>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A197">
         <v>196</v>
       </c>
-      <c r="B197" s="7">
-        <v>45743</v>
+      <c r="B197" s="3">
+        <v>45659</v>
       </c>
       <c r="C197" t="s">
         <v>8</v>
@@ -3888,16 +4045,17 @@
       <c r="D197" t="s">
         <v>13</v>
       </c>
-      <c r="E197" s="3">
+      <c r="E197">
         <v>-9</v>
       </c>
-    </row>
-    <row r="198" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A198" s="3">
+      <c r="F197" s="3"/>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A198">
         <v>197</v>
       </c>
-      <c r="B198" s="7">
-        <v>45744</v>
+      <c r="B198" s="3">
+        <v>45660</v>
       </c>
       <c r="C198" t="s">
         <v>5</v>
@@ -3905,16 +4063,17 @@
       <c r="D198" t="s">
         <v>6</v>
       </c>
-      <c r="E198" s="3">
+      <c r="E198">
         <v>-2</v>
       </c>
-    </row>
-    <row r="199" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A199" s="3">
+      <c r="F198" s="3"/>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A199">
         <v>198</v>
       </c>
-      <c r="B199" s="7">
-        <v>45744</v>
+      <c r="B199" s="3">
+        <v>45660</v>
       </c>
       <c r="C199" t="s">
         <v>5</v>
@@ -3922,16 +4081,17 @@
       <c r="D199" t="s">
         <v>10</v>
       </c>
-      <c r="E199" s="3">
+      <c r="E199">
         <v>-8</v>
       </c>
-    </row>
-    <row r="200" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A200" s="3">
+      <c r="F199" s="3"/>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A200">
         <v>199</v>
       </c>
-      <c r="B200" s="7">
-        <v>45744</v>
+      <c r="B200" s="3">
+        <v>45660</v>
       </c>
       <c r="C200" t="s">
         <v>5</v>
@@ -3939,16 +4099,17 @@
       <c r="D200" t="s">
         <v>10</v>
       </c>
-      <c r="E200" s="3">
+      <c r="E200">
         <v>-14</v>
       </c>
-    </row>
-    <row r="201" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A201" s="3">
+      <c r="F200" s="3"/>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A201">
         <v>200</v>
       </c>
-      <c r="B201" s="7">
-        <v>45745</v>
+      <c r="B201" s="3">
+        <v>45661</v>
       </c>
       <c r="C201" t="s">
         <v>8</v>
@@ -3956,16 +4117,17 @@
       <c r="D201" t="s">
         <v>9</v>
       </c>
-      <c r="E201" s="3">
+      <c r="E201">
         <v>-13</v>
       </c>
-    </row>
-    <row r="202" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A202" s="3">
+      <c r="F201" s="3"/>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A202">
         <v>201</v>
       </c>
-      <c r="B202" s="7">
-        <v>45746</v>
+      <c r="B202" s="3">
+        <v>45662</v>
       </c>
       <c r="C202" t="s">
         <v>8</v>
@@ -3973,16 +4135,17 @@
       <c r="D202" t="s">
         <v>9</v>
       </c>
-      <c r="E202" s="3">
+      <c r="E202">
         <v>-10</v>
       </c>
-    </row>
-    <row r="203" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A203" s="3">
+      <c r="F202" s="3"/>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A203">
         <v>202</v>
       </c>
-      <c r="B203" s="7">
-        <v>45746</v>
+      <c r="B203" s="3">
+        <v>45662</v>
       </c>
       <c r="C203" t="s">
         <v>8</v>
@@ -3990,16 +4153,17 @@
       <c r="D203" t="s">
         <v>13</v>
       </c>
-      <c r="E203" s="3">
+      <c r="E203">
         <v>-12</v>
       </c>
-    </row>
-    <row r="204" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A204" s="3">
+      <c r="F203" s="3"/>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A204">
         <v>203</v>
       </c>
-      <c r="B204" s="7">
-        <v>45747</v>
+      <c r="B204" s="3">
+        <v>45663</v>
       </c>
       <c r="C204" t="s">
         <v>5</v>
@@ -4007,16 +4171,17 @@
       <c r="D204" t="s">
         <v>10</v>
       </c>
-      <c r="E204" s="3">
+      <c r="E204">
         <v>-19</v>
       </c>
-    </row>
-    <row r="205" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A205" s="3">
+      <c r="F204" s="3"/>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A205">
         <v>204</v>
       </c>
-      <c r="B205" s="7">
-        <v>45747</v>
+      <c r="B205" s="3">
+        <v>45663</v>
       </c>
       <c r="C205" t="s">
         <v>5</v>
@@ -4024,16 +4189,17 @@
       <c r="D205" t="s">
         <v>10</v>
       </c>
-      <c r="E205" s="3">
+      <c r="E205">
         <v>-19</v>
       </c>
-    </row>
-    <row r="206" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A206" s="3">
+      <c r="F205" s="3"/>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A206">
         <v>205</v>
       </c>
-      <c r="B206" s="7">
-        <v>45747</v>
+      <c r="B206" s="3">
+        <v>45663</v>
       </c>
       <c r="C206" t="s">
         <v>8</v>
@@ -4041,16 +4207,17 @@
       <c r="D206" t="s">
         <v>14</v>
       </c>
-      <c r="E206" s="3">
+      <c r="E206">
         <v>-87</v>
       </c>
-    </row>
-    <row r="207" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A207" s="3">
+      <c r="F206" s="3"/>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A207">
         <v>206</v>
       </c>
-      <c r="B207" s="7">
-        <v>45747</v>
+      <c r="B207" s="3">
+        <v>45663</v>
       </c>
       <c r="C207" t="s">
         <v>17</v>
@@ -4058,16 +4225,17 @@
       <c r="D207" t="s">
         <v>18</v>
       </c>
-      <c r="E207" s="3">
+      <c r="E207">
         <v>-900</v>
       </c>
-    </row>
-    <row r="208" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A208" s="3">
+      <c r="F207" s="3"/>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A208">
         <v>207</v>
       </c>
-      <c r="B208" s="7">
-        <v>45747</v>
+      <c r="B208" s="3">
+        <v>45663</v>
       </c>
       <c r="C208" t="s">
         <v>19</v>
@@ -4075,16 +4243,17 @@
       <c r="D208" t="s">
         <v>20</v>
       </c>
-      <c r="E208" s="4">
+      <c r="E208">
         <v>-14.99</v>
       </c>
-    </row>
-    <row r="209" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A209" s="3">
+      <c r="F208" s="3"/>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A209">
         <v>208</v>
       </c>
-      <c r="B209" s="7">
-        <v>45747</v>
+      <c r="B209" s="3">
+        <v>45663</v>
       </c>
       <c r="C209" t="s">
         <v>21</v>
@@ -4092,16 +4261,17 @@
       <c r="D209" t="s">
         <v>22</v>
       </c>
-      <c r="E209" s="3">
+      <c r="E209">
         <v>-39</v>
       </c>
-    </row>
-    <row r="210" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A210" s="3">
+      <c r="F209" s="3"/>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A210">
         <v>209</v>
       </c>
-      <c r="B210" s="7">
-        <v>45747</v>
+      <c r="B210" s="3">
+        <v>45663</v>
       </c>
       <c r="C210" t="s">
         <v>21</v>
@@ -4109,16 +4279,17 @@
       <c r="D210" t="s">
         <v>23</v>
       </c>
-      <c r="E210" s="4">
+      <c r="E210">
         <v>-47.1</v>
       </c>
-    </row>
-    <row r="211" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A211" s="3">
+      <c r="F210" s="3"/>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A211">
         <v>210</v>
       </c>
-      <c r="B211" s="7">
-        <v>45747</v>
+      <c r="B211" s="3">
+        <v>45663</v>
       </c>
       <c r="C211" t="s">
         <v>21</v>
@@ -4126,16 +4297,17 @@
       <c r="D211" t="s">
         <v>24</v>
       </c>
-      <c r="E211" s="3">
+      <c r="E211">
         <v>-20</v>
       </c>
-    </row>
-    <row r="212" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A212" s="3">
+      <c r="F211" s="3"/>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A212">
         <v>211</v>
       </c>
-      <c r="B212" s="7">
-        <v>45747</v>
+      <c r="B212" s="3">
+        <v>45663</v>
       </c>
       <c r="C212" t="s">
         <v>25</v>
@@ -4143,16 +4315,17 @@
       <c r="D212" t="s">
         <v>26</v>
       </c>
-      <c r="E212" s="4">
+      <c r="E212">
         <v>17.010000000000002</v>
       </c>
-    </row>
-    <row r="213" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A213" s="3">
+      <c r="F212" s="3"/>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A213">
         <v>212</v>
       </c>
-      <c r="B213" s="7">
-        <v>45748</v>
+      <c r="B213" s="3">
+        <v>45664</v>
       </c>
       <c r="C213" t="s">
         <v>5</v>
@@ -4160,16 +4333,17 @@
       <c r="D213" t="s">
         <v>6</v>
       </c>
-      <c r="E213" s="3">
+      <c r="E213">
         <v>-2</v>
       </c>
-    </row>
-    <row r="214" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A214" s="3">
+      <c r="F213" s="3"/>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A214">
         <v>213</v>
       </c>
-      <c r="B214" s="7">
-        <v>45748</v>
+      <c r="B214" s="3">
+        <v>45664</v>
       </c>
       <c r="C214" t="s">
         <v>8</v>
@@ -4177,16 +4351,17 @@
       <c r="D214" t="s">
         <v>9</v>
       </c>
-      <c r="E214" s="3">
+      <c r="E214">
         <v>-11</v>
       </c>
-    </row>
-    <row r="215" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A215" s="3">
+      <c r="F214" s="3"/>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A215">
         <v>214</v>
       </c>
-      <c r="B215" s="7">
-        <v>45748</v>
+      <c r="B215" s="3">
+        <v>45664</v>
       </c>
       <c r="C215" t="s">
         <v>8</v>
@@ -4194,16 +4369,17 @@
       <c r="D215" t="s">
         <v>13</v>
       </c>
-      <c r="E215" s="3">
+      <c r="E215">
         <v>-15</v>
       </c>
-    </row>
-    <row r="216" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A216" s="3">
+      <c r="F215" s="3"/>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A216">
         <v>215</v>
       </c>
-      <c r="B216" s="7">
-        <v>45748</v>
+      <c r="B216" s="3">
+        <v>45664</v>
       </c>
       <c r="C216" t="s">
         <v>8</v>
@@ -4211,16 +4387,17 @@
       <c r="D216" t="s">
         <v>14</v>
       </c>
-      <c r="E216" s="3">
+      <c r="E216">
         <v>-55</v>
       </c>
-    </row>
-    <row r="217" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A217" s="3">
+      <c r="F216" s="3"/>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A217">
         <v>216</v>
       </c>
-      <c r="B217" s="7">
-        <v>45748</v>
+      <c r="B217" s="3">
+        <v>45664</v>
       </c>
       <c r="C217" t="s">
         <v>11</v>
@@ -4228,16 +4405,17 @@
       <c r="D217" t="s">
         <v>12</v>
       </c>
-      <c r="E217" s="3">
+      <c r="E217">
         <v>2500</v>
       </c>
-    </row>
-    <row r="218" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A218" s="3">
+      <c r="F217" s="3"/>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A218">
         <v>217</v>
       </c>
-      <c r="B218" s="7">
-        <v>45749</v>
+      <c r="B218" s="3">
+        <v>45665</v>
       </c>
       <c r="C218" t="s">
         <v>5</v>
@@ -4245,16 +4423,17 @@
       <c r="D218" t="s">
         <v>6</v>
       </c>
-      <c r="E218" s="4">
+      <c r="E218">
         <v>-2.5</v>
       </c>
-    </row>
-    <row r="219" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A219" s="3">
+      <c r="F218" s="3"/>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A219">
         <v>218</v>
       </c>
-      <c r="B219" s="7">
-        <v>45750</v>
+      <c r="B219" s="3">
+        <v>45666</v>
       </c>
       <c r="C219" t="s">
         <v>5</v>
@@ -4262,16 +4441,17 @@
       <c r="D219" t="s">
         <v>10</v>
       </c>
-      <c r="E219" s="3">
+      <c r="E219">
         <v>-11</v>
       </c>
-    </row>
-    <row r="220" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A220" s="3">
+      <c r="F219" s="3"/>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A220">
         <v>219</v>
       </c>
-      <c r="B220" s="7">
-        <v>45750</v>
+      <c r="B220" s="3">
+        <v>45666</v>
       </c>
       <c r="C220" t="s">
         <v>5</v>
@@ -4279,16 +4459,17 @@
       <c r="D220" t="s">
         <v>10</v>
       </c>
-      <c r="E220" s="3">
+      <c r="E220">
         <v>-14</v>
       </c>
-    </row>
-    <row r="221" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A221" s="3">
+      <c r="F220" s="3"/>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A221">
         <v>220</v>
       </c>
-      <c r="B221" s="7">
-        <v>45751</v>
+      <c r="B221" s="3">
+        <v>45667</v>
       </c>
       <c r="C221" t="s">
         <v>5</v>
@@ -4296,16 +4477,17 @@
       <c r="D221" t="s">
         <v>6</v>
       </c>
-      <c r="E221" s="3">
+      <c r="E221">
         <v>-2</v>
       </c>
-    </row>
-    <row r="222" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A222" s="3">
+      <c r="F221" s="3"/>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A222">
         <v>221</v>
       </c>
-      <c r="B222" s="7">
-        <v>45751</v>
+      <c r="B222" s="3">
+        <v>45667</v>
       </c>
       <c r="C222" t="s">
         <v>5</v>
@@ -4313,16 +4495,17 @@
       <c r="D222" t="s">
         <v>6</v>
       </c>
-      <c r="E222" s="3">
+      <c r="E222">
         <v>-2</v>
       </c>
-    </row>
-    <row r="223" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A223" s="3">
+      <c r="F222" s="3"/>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A223">
         <v>222</v>
       </c>
-      <c r="B223" s="7">
-        <v>45752</v>
+      <c r="B223" s="3">
+        <v>45668</v>
       </c>
       <c r="C223" t="s">
         <v>5</v>
@@ -4330,16 +4513,17 @@
       <c r="D223" t="s">
         <v>7</v>
       </c>
-      <c r="E223" s="3">
+      <c r="E223">
         <v>-2</v>
       </c>
-    </row>
-    <row r="224" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A224" s="3">
+      <c r="F223" s="3"/>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A224">
         <v>223</v>
       </c>
-      <c r="B224" s="7">
-        <v>45753</v>
+      <c r="B224" s="3">
+        <v>45669</v>
       </c>
       <c r="C224" t="s">
         <v>5</v>
@@ -4347,16 +4531,17 @@
       <c r="D224" t="s">
         <v>7</v>
       </c>
-      <c r="E224" s="4">
+      <c r="E224">
         <v>-2.5</v>
       </c>
-    </row>
-    <row r="225" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A225" s="3">
+      <c r="F224" s="3"/>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A225">
         <v>224</v>
       </c>
-      <c r="B225" s="7">
-        <v>45754</v>
+      <c r="B225" s="3">
+        <v>45670</v>
       </c>
       <c r="C225" t="s">
         <v>5</v>
@@ -4364,16 +4549,17 @@
       <c r="D225" t="s">
         <v>10</v>
       </c>
-      <c r="E225" s="3">
+      <c r="E225">
         <v>-8</v>
       </c>
-    </row>
-    <row r="226" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A226" s="3">
+      <c r="F225" s="3"/>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A226">
         <v>225</v>
       </c>
-      <c r="B226" s="7">
-        <v>45754</v>
+      <c r="B226" s="3">
+        <v>45670</v>
       </c>
       <c r="C226" t="s">
         <v>8</v>
@@ -4381,16 +4567,17 @@
       <c r="D226" t="s">
         <v>9</v>
       </c>
-      <c r="E226" s="3">
+      <c r="E226">
         <v>-11</v>
       </c>
-    </row>
-    <row r="227" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A227" s="3">
+      <c r="F226" s="3"/>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A227">
         <v>226</v>
       </c>
-      <c r="B227" s="7">
-        <v>45755</v>
+      <c r="B227" s="3">
+        <v>45671</v>
       </c>
       <c r="C227" t="s">
         <v>5</v>
@@ -4398,16 +4585,17 @@
       <c r="D227" t="s">
         <v>10</v>
       </c>
-      <c r="E227" s="3">
+      <c r="E227">
         <v>-9</v>
       </c>
-    </row>
-    <row r="228" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A228" s="3">
+      <c r="F227" s="3"/>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A228">
         <v>227</v>
       </c>
-      <c r="B228" s="7">
-        <v>45755</v>
+      <c r="B228" s="3">
+        <v>45671</v>
       </c>
       <c r="C228" t="s">
         <v>8</v>
@@ -4415,16 +4603,17 @@
       <c r="D228" t="s">
         <v>13</v>
       </c>
-      <c r="E228" s="3">
+      <c r="E228">
         <v>-10</v>
       </c>
-    </row>
-    <row r="229" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A229" s="3">
+      <c r="F228" s="3"/>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A229">
         <v>228</v>
       </c>
-      <c r="B229" s="7">
-        <v>45756</v>
+      <c r="B229" s="3">
+        <v>45672</v>
       </c>
       <c r="C229" t="s">
         <v>5</v>
@@ -4432,16 +4621,17 @@
       <c r="D229" t="s">
         <v>6</v>
       </c>
-      <c r="E229" s="3">
+      <c r="E229">
         <v>-2</v>
       </c>
-    </row>
-    <row r="230" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A230" s="3">
+      <c r="F229" s="3"/>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A230">
         <v>229</v>
       </c>
-      <c r="B230" s="7">
-        <v>45756</v>
+      <c r="B230" s="3">
+        <v>45672</v>
       </c>
       <c r="C230" t="s">
         <v>5</v>
@@ -4449,16 +4639,17 @@
       <c r="D230" t="s">
         <v>7</v>
       </c>
-      <c r="E230" s="3">
+      <c r="E230">
         <v>-2</v>
       </c>
-    </row>
-    <row r="231" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A231" s="3">
+      <c r="F230" s="3"/>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A231">
         <v>230</v>
       </c>
-      <c r="B231" s="7">
-        <v>45756</v>
+      <c r="B231" s="3">
+        <v>45672</v>
       </c>
       <c r="C231" t="s">
         <v>8</v>
@@ -4466,16 +4657,17 @@
       <c r="D231" t="s">
         <v>9</v>
       </c>
-      <c r="E231" s="3">
+      <c r="E231">
         <v>-11</v>
       </c>
-    </row>
-    <row r="232" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A232" s="3">
+      <c r="F231" s="3"/>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A232">
         <v>231</v>
       </c>
-      <c r="B232" s="7">
-        <v>45758</v>
+      <c r="B232" s="3">
+        <v>45674</v>
       </c>
       <c r="C232" t="s">
         <v>5</v>
@@ -4483,16 +4675,17 @@
       <c r="D232" t="s">
         <v>10</v>
       </c>
-      <c r="E232" s="3">
+      <c r="E232">
         <v>-11</v>
       </c>
-    </row>
-    <row r="233" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A233" s="3">
+      <c r="F232" s="3"/>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A233">
         <v>232</v>
       </c>
-      <c r="B233" s="7">
-        <v>45758</v>
+      <c r="B233" s="3">
+        <v>45674</v>
       </c>
       <c r="C233" t="s">
         <v>5</v>
@@ -4500,16 +4693,17 @@
       <c r="D233" t="s">
         <v>10</v>
       </c>
-      <c r="E233" s="3">
+      <c r="E233">
         <v>-14</v>
       </c>
-    </row>
-    <row r="234" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A234" s="3">
+      <c r="F233" s="3"/>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A234">
         <v>233</v>
       </c>
-      <c r="B234" s="7">
-        <v>45758</v>
+      <c r="B234" s="3">
+        <v>45674</v>
       </c>
       <c r="C234" t="s">
         <v>8</v>
@@ -4517,16 +4711,17 @@
       <c r="D234" t="s">
         <v>13</v>
       </c>
-      <c r="E234" s="3">
+      <c r="E234">
         <v>-15</v>
       </c>
-    </row>
-    <row r="235" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A235" s="3">
+      <c r="F234" s="3"/>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A235">
         <v>234</v>
       </c>
-      <c r="B235" s="7">
-        <v>45759</v>
+      <c r="B235" s="3">
+        <v>45675</v>
       </c>
       <c r="C235" t="s">
         <v>5</v>
@@ -4534,16 +4729,17 @@
       <c r="D235" t="s">
         <v>10</v>
       </c>
-      <c r="E235" s="3">
+      <c r="E235">
         <v>-11</v>
       </c>
-    </row>
-    <row r="236" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A236" s="3">
+      <c r="F235" s="3"/>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A236">
         <v>235</v>
       </c>
-      <c r="B236" s="7">
-        <v>45759</v>
+      <c r="B236" s="3">
+        <v>45675</v>
       </c>
       <c r="C236" t="s">
         <v>8</v>
@@ -4551,16 +4747,17 @@
       <c r="D236" t="s">
         <v>14</v>
       </c>
-      <c r="E236" s="3">
+      <c r="E236">
         <v>-56</v>
       </c>
-    </row>
-    <row r="237" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A237" s="3">
+      <c r="F236" s="3"/>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A237">
         <v>236</v>
       </c>
-      <c r="B237" s="7">
-        <v>45760</v>
+      <c r="B237" s="3">
+        <v>45676</v>
       </c>
       <c r="C237" t="s">
         <v>8</v>
@@ -4568,16 +4765,17 @@
       <c r="D237" t="s">
         <v>9</v>
       </c>
-      <c r="E237" s="3">
+      <c r="E237">
         <v>-11</v>
       </c>
-    </row>
-    <row r="238" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A238" s="3">
+      <c r="F237" s="3"/>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A238">
         <v>237</v>
       </c>
-      <c r="B238" s="7">
-        <v>45760</v>
+      <c r="B238" s="3">
+        <v>45676</v>
       </c>
       <c r="C238" t="s">
         <v>8</v>
@@ -4585,16 +4783,17 @@
       <c r="D238" t="s">
         <v>9</v>
       </c>
-      <c r="E238" s="3">
+      <c r="E238">
         <v>-11</v>
       </c>
-    </row>
-    <row r="239" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A239" s="3">
+      <c r="F238" s="3"/>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A239">
         <v>238</v>
       </c>
-      <c r="B239" s="7">
-        <v>45760</v>
+      <c r="B239" s="3">
+        <v>45676</v>
       </c>
       <c r="C239" t="s">
         <v>5</v>
@@ -4602,16 +4801,17 @@
       <c r="D239" t="s">
         <v>10</v>
       </c>
-      <c r="E239" s="3">
+      <c r="E239">
         <v>-17</v>
       </c>
-    </row>
-    <row r="240" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A240" s="3">
+      <c r="F239" s="3"/>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A240">
         <v>239</v>
       </c>
-      <c r="B240" s="7">
-        <v>45761</v>
+      <c r="B240" s="3">
+        <v>45677</v>
       </c>
       <c r="C240" t="s">
         <v>5</v>
@@ -4619,16 +4819,17 @@
       <c r="D240" t="s">
         <v>6</v>
       </c>
-      <c r="E240" s="4">
+      <c r="E240">
         <v>-1.5</v>
       </c>
-    </row>
-    <row r="241" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A241" s="3">
+      <c r="F240" s="3"/>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A241">
         <v>240</v>
       </c>
-      <c r="B241" s="7">
-        <v>45761</v>
+      <c r="B241" s="3">
+        <v>45677</v>
       </c>
       <c r="C241" t="s">
         <v>5</v>
@@ -4636,16 +4837,17 @@
       <c r="D241" t="s">
         <v>7</v>
       </c>
-      <c r="E241" s="4">
+      <c r="E241">
         <v>-2.5</v>
       </c>
-    </row>
-    <row r="242" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A242" s="3">
+      <c r="F241" s="3"/>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A242">
         <v>241</v>
       </c>
-      <c r="B242" s="7">
-        <v>45762</v>
+      <c r="B242" s="3">
+        <v>45678</v>
       </c>
       <c r="C242" t="s">
         <v>8</v>
@@ -4653,16 +4855,17 @@
       <c r="D242" t="s">
         <v>9</v>
       </c>
-      <c r="E242" s="3">
+      <c r="E242">
         <v>-15</v>
       </c>
-    </row>
-    <row r="243" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A243" s="3">
+      <c r="F242" s="3"/>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A243">
         <v>242</v>
       </c>
-      <c r="B243" s="7">
-        <v>45763</v>
+      <c r="B243" s="3">
+        <v>45679</v>
       </c>
       <c r="C243" t="s">
         <v>5</v>
@@ -4670,16 +4873,17 @@
       <c r="D243" t="s">
         <v>6</v>
       </c>
-      <c r="E243" s="4">
+      <c r="E243">
         <v>-1.5</v>
       </c>
-    </row>
-    <row r="244" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A244" s="3">
+      <c r="F243" s="3"/>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A244">
         <v>243</v>
       </c>
-      <c r="B244" s="7">
-        <v>45763</v>
+      <c r="B244" s="3">
+        <v>45679</v>
       </c>
       <c r="C244" t="s">
         <v>8</v>
@@ -4687,16 +4891,17 @@
       <c r="D244" t="s">
         <v>9</v>
       </c>
-      <c r="E244" s="3">
+      <c r="E244">
         <v>-13</v>
       </c>
-    </row>
-    <row r="245" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A245" s="3">
+      <c r="F244" s="3"/>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A245">
         <v>244</v>
       </c>
-      <c r="B245" s="7">
-        <v>45763</v>
+      <c r="B245" s="3">
+        <v>45679</v>
       </c>
       <c r="C245" t="s">
         <v>8</v>
@@ -4704,16 +4909,17 @@
       <c r="D245" t="s">
         <v>14</v>
       </c>
-      <c r="E245" s="3">
+      <c r="E245">
         <v>-76</v>
       </c>
-    </row>
-    <row r="246" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A246" s="3">
+      <c r="F245" s="3"/>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A246">
         <v>245</v>
       </c>
-      <c r="B246" s="7">
-        <v>45764</v>
+      <c r="B246" s="3">
+        <v>45680</v>
       </c>
       <c r="C246" t="s">
         <v>5</v>
@@ -4721,16 +4927,17 @@
       <c r="D246" t="s">
         <v>7</v>
       </c>
-      <c r="E246" s="3">
+      <c r="E246">
         <v>-2</v>
       </c>
-    </row>
-    <row r="247" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A247" s="3">
+      <c r="F246" s="3"/>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A247">
         <v>246</v>
       </c>
-      <c r="B247" s="7">
-        <v>45764</v>
+      <c r="B247" s="3">
+        <v>45680</v>
       </c>
       <c r="C247" t="s">
         <v>5</v>
@@ -4738,16 +4945,17 @@
       <c r="D247" t="s">
         <v>10</v>
       </c>
-      <c r="E247" s="3">
+      <c r="E247">
         <v>-11</v>
       </c>
-    </row>
-    <row r="248" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A248" s="3">
+      <c r="F247" s="3"/>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A248">
         <v>247</v>
       </c>
-      <c r="B248" s="7">
-        <v>45764</v>
+      <c r="B248" s="3">
+        <v>45680</v>
       </c>
       <c r="C248" t="s">
         <v>5</v>
@@ -4755,16 +4963,17 @@
       <c r="D248" t="s">
         <v>10</v>
       </c>
-      <c r="E248" s="3">
+      <c r="E248">
         <v>-20</v>
       </c>
-    </row>
-    <row r="249" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A249" s="3">
+      <c r="F248" s="3"/>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A249">
         <v>248</v>
       </c>
-      <c r="B249" s="7">
-        <v>45765</v>
+      <c r="B249" s="3">
+        <v>45681</v>
       </c>
       <c r="C249" t="s">
         <v>5</v>
@@ -4772,16 +4981,17 @@
       <c r="D249" t="s">
         <v>6</v>
       </c>
-      <c r="E249" s="4">
+      <c r="E249">
         <v>-1.5</v>
       </c>
-    </row>
-    <row r="250" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A250" s="3">
+      <c r="F249" s="3"/>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A250">
         <v>249</v>
       </c>
-      <c r="B250" s="7">
-        <v>45766</v>
+      <c r="B250" s="3">
+        <v>45682</v>
       </c>
       <c r="C250" t="s">
         <v>8</v>
@@ -4789,16 +4999,17 @@
       <c r="D250" t="s">
         <v>9</v>
       </c>
-      <c r="E250" s="3">
+      <c r="E250">
         <v>-15</v>
       </c>
-    </row>
-    <row r="251" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A251" s="3">
+      <c r="F250" s="3"/>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A251">
         <v>250</v>
       </c>
-      <c r="B251" s="7">
-        <v>45767</v>
+      <c r="B251" s="3">
+        <v>45683</v>
       </c>
       <c r="C251" t="s">
         <v>8</v>
@@ -4806,16 +5017,17 @@
       <c r="D251" t="s">
         <v>13</v>
       </c>
-      <c r="E251" s="3">
+      <c r="E251">
         <v>-12</v>
       </c>
-    </row>
-    <row r="252" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A252" s="3">
+      <c r="F251" s="3"/>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A252">
         <v>251</v>
       </c>
-      <c r="B252" s="7">
-        <v>45767</v>
+      <c r="B252" s="3">
+        <v>45683</v>
       </c>
       <c r="C252" t="s">
         <v>15</v>
@@ -4823,16 +5035,17 @@
       <c r="D252" t="s">
         <v>29</v>
       </c>
-      <c r="E252" s="3">
+      <c r="E252">
         <v>1000</v>
       </c>
-    </row>
-    <row r="253" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A253" s="3">
+      <c r="F252" s="3"/>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A253">
         <v>252</v>
       </c>
-      <c r="B253" s="7">
-        <v>45768</v>
+      <c r="B253" s="3">
+        <v>45684</v>
       </c>
       <c r="C253" t="s">
         <v>5</v>
@@ -4840,16 +5053,17 @@
       <c r="D253" t="s">
         <v>6</v>
       </c>
-      <c r="E253" s="3">
+      <c r="E253">
         <v>-2</v>
       </c>
-    </row>
-    <row r="254" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A254" s="3">
+      <c r="F253" s="3"/>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A254">
         <v>253</v>
       </c>
-      <c r="B254" s="7">
-        <v>45768</v>
+      <c r="B254" s="3">
+        <v>45684</v>
       </c>
       <c r="C254" t="s">
         <v>5</v>
@@ -4857,16 +5071,17 @@
       <c r="D254" t="s">
         <v>7</v>
       </c>
-      <c r="E254" s="4">
+      <c r="E254">
         <v>-2.5</v>
       </c>
-    </row>
-    <row r="255" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A255" s="3">
+      <c r="F254" s="3"/>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A255">
         <v>254</v>
       </c>
-      <c r="B255" s="7">
-        <v>45768</v>
+      <c r="B255" s="3">
+        <v>45684</v>
       </c>
       <c r="C255" t="s">
         <v>5</v>
@@ -4874,16 +5089,17 @@
       <c r="D255" t="s">
         <v>10</v>
       </c>
-      <c r="E255" s="3">
+      <c r="E255">
         <v>-14</v>
       </c>
-    </row>
-    <row r="256" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A256" s="3">
+      <c r="F255" s="3"/>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A256">
         <v>255</v>
       </c>
-      <c r="B256" s="7">
-        <v>45769</v>
+      <c r="B256" s="3">
+        <v>45685</v>
       </c>
       <c r="C256" t="s">
         <v>5</v>
@@ -4891,16 +5107,17 @@
       <c r="D256" t="s">
         <v>10</v>
       </c>
-      <c r="E256" s="3">
+      <c r="E256">
         <v>-15</v>
       </c>
-    </row>
-    <row r="257" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A257" s="3">
+      <c r="F256" s="3"/>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A257">
         <v>256</v>
       </c>
-      <c r="B257" s="7">
-        <v>45769</v>
+      <c r="B257" s="3">
+        <v>45685</v>
       </c>
       <c r="C257" t="s">
         <v>8</v>
@@ -4908,16 +5125,17 @@
       <c r="D257" t="s">
         <v>14</v>
       </c>
-      <c r="E257" s="3">
+      <c r="E257">
         <v>-56</v>
       </c>
-    </row>
-    <row r="258" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A258" s="3">
+      <c r="F257" s="3"/>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A258">
         <v>257</v>
       </c>
-      <c r="B258" s="7">
-        <v>45770</v>
+      <c r="B258" s="3">
+        <v>45686</v>
       </c>
       <c r="C258" t="s">
         <v>5</v>
@@ -4925,16 +5143,17 @@
       <c r="D258" t="s">
         <v>6</v>
       </c>
-      <c r="E258" s="4">
+      <c r="E258">
         <v>-1.5</v>
       </c>
-    </row>
-    <row r="259" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A259" s="3">
+      <c r="F258" s="3"/>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A259">
         <v>258</v>
       </c>
-      <c r="B259" s="7">
-        <v>45770</v>
+      <c r="B259" s="3">
+        <v>45686</v>
       </c>
       <c r="C259" t="s">
         <v>5</v>
@@ -4942,16 +5161,17 @@
       <c r="D259" t="s">
         <v>6</v>
       </c>
-      <c r="E259" s="3">
+      <c r="E259">
         <v>-2</v>
       </c>
-    </row>
-    <row r="260" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A260" s="3">
+      <c r="F259" s="3"/>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A260">
         <v>259</v>
       </c>
-      <c r="B260" s="7">
-        <v>45771</v>
+      <c r="B260" s="3">
+        <v>45687</v>
       </c>
       <c r="C260" t="s">
         <v>5</v>
@@ -4959,16 +5179,17 @@
       <c r="D260" t="s">
         <v>6</v>
       </c>
-      <c r="E260" s="3">
+      <c r="E260">
         <v>-3</v>
       </c>
-    </row>
-    <row r="261" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A261" s="3">
+      <c r="F260" s="3"/>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A261">
         <v>260</v>
       </c>
-      <c r="B261" s="7">
-        <v>45771</v>
+      <c r="B261" s="3">
+        <v>45687</v>
       </c>
       <c r="C261" t="s">
         <v>8</v>
@@ -4976,16 +5197,17 @@
       <c r="D261" t="s">
         <v>9</v>
       </c>
-      <c r="E261" s="3">
+      <c r="E261">
         <v>-10</v>
       </c>
-    </row>
-    <row r="262" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A262" s="3">
+      <c r="F261" s="3"/>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A262">
         <v>261</v>
       </c>
-      <c r="B262" s="7">
-        <v>45771</v>
+      <c r="B262" s="3">
+        <v>45687</v>
       </c>
       <c r="C262" t="s">
         <v>5</v>
@@ -4993,16 +5215,17 @@
       <c r="D262" t="s">
         <v>10</v>
       </c>
-      <c r="E262" s="3">
+      <c r="E262">
         <v>-16</v>
       </c>
-    </row>
-    <row r="263" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A263" s="3">
+      <c r="F262" s="3"/>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A263">
         <v>262</v>
       </c>
-      <c r="B263" s="7">
-        <v>45773</v>
+      <c r="B263" s="3">
+        <v>45689</v>
       </c>
       <c r="C263" t="s">
         <v>5</v>
@@ -5010,16 +5233,17 @@
       <c r="D263" t="s">
         <v>6</v>
       </c>
-      <c r="E263" s="4">
+      <c r="E263">
         <v>-2.5</v>
       </c>
-    </row>
-    <row r="264" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A264" s="3">
+      <c r="F263" s="3"/>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A264">
         <v>263</v>
       </c>
-      <c r="B264" s="7">
-        <v>45773</v>
+      <c r="B264" s="3">
+        <v>45689</v>
       </c>
       <c r="C264" t="s">
         <v>5</v>
@@ -5027,16 +5251,17 @@
       <c r="D264" t="s">
         <v>6</v>
       </c>
-      <c r="E264" s="3">
+      <c r="E264">
         <v>-3</v>
       </c>
-    </row>
-    <row r="265" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A265" s="3">
+      <c r="F264" s="3"/>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A265">
         <v>264</v>
       </c>
-      <c r="B265" s="7">
-        <v>45775</v>
+      <c r="B265" s="3">
+        <v>45691</v>
       </c>
       <c r="C265" t="s">
         <v>5</v>
@@ -5044,16 +5269,17 @@
       <c r="D265" t="s">
         <v>7</v>
       </c>
-      <c r="E265" s="3">
+      <c r="E265">
         <v>-2</v>
       </c>
-    </row>
-    <row r="266" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A266" s="3">
+      <c r="F265" s="3"/>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A266">
         <v>265</v>
       </c>
-      <c r="B266" s="7">
-        <v>45776</v>
+      <c r="B266" s="3">
+        <v>45692</v>
       </c>
       <c r="C266" t="s">
         <v>5</v>
@@ -5061,16 +5287,17 @@
       <c r="D266" t="s">
         <v>6</v>
       </c>
-      <c r="E266" s="3">
+      <c r="E266">
         <v>-2</v>
       </c>
-    </row>
-    <row r="267" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A267" s="3">
+      <c r="F266" s="3"/>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A267">
         <v>266</v>
       </c>
-      <c r="B267" s="7">
-        <v>45776</v>
+      <c r="B267" s="3">
+        <v>45692</v>
       </c>
       <c r="C267" t="s">
         <v>5</v>
@@ -5078,16 +5305,17 @@
       <c r="D267" t="s">
         <v>6</v>
       </c>
-      <c r="E267" s="4">
+      <c r="E267">
         <v>-2.5</v>
       </c>
-    </row>
-    <row r="268" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A268" s="3">
+      <c r="F267" s="3"/>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A268">
         <v>267</v>
       </c>
-      <c r="B268" s="7">
-        <v>45776</v>
+      <c r="B268" s="3">
+        <v>45692</v>
       </c>
       <c r="C268" t="s">
         <v>5</v>
@@ -5095,16 +5323,17 @@
       <c r="D268" t="s">
         <v>6</v>
       </c>
-      <c r="E268" s="4">
+      <c r="E268">
         <v>-2.5</v>
       </c>
-    </row>
-    <row r="269" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A269" s="3">
+      <c r="F268" s="3"/>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A269">
         <v>268</v>
       </c>
-      <c r="B269" s="7">
-        <v>45776</v>
+      <c r="B269" s="3">
+        <v>45692</v>
       </c>
       <c r="C269" t="s">
         <v>5</v>
@@ -5112,16 +5341,17 @@
       <c r="D269" t="s">
         <v>6</v>
       </c>
-      <c r="E269" s="3">
+      <c r="E269">
         <v>-3</v>
       </c>
-    </row>
-    <row r="270" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A270" s="3">
+      <c r="F269" s="3"/>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A270">
         <v>269</v>
       </c>
-      <c r="B270" s="7">
-        <v>45776</v>
+      <c r="B270" s="3">
+        <v>45692</v>
       </c>
       <c r="C270" t="s">
         <v>5</v>
@@ -5129,16 +5359,17 @@
       <c r="D270" t="s">
         <v>6</v>
       </c>
-      <c r="E270" s="3">
+      <c r="E270">
         <v>-3</v>
       </c>
-    </row>
-    <row r="271" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A271" s="3">
+      <c r="F270" s="3"/>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A271">
         <v>270</v>
       </c>
-      <c r="B271" s="7">
-        <v>45777</v>
+      <c r="B271" s="3">
+        <v>45693</v>
       </c>
       <c r="C271" t="s">
         <v>5</v>
@@ -5146,16 +5377,17 @@
       <c r="D271" t="s">
         <v>6</v>
       </c>
-      <c r="E271" s="4">
+      <c r="E271">
         <v>-2.5</v>
       </c>
-    </row>
-    <row r="272" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A272" s="3">
+      <c r="F271" s="3"/>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A272">
         <v>271</v>
       </c>
-      <c r="B272" s="7">
-        <v>45777</v>
+      <c r="B272" s="3">
+        <v>45693</v>
       </c>
       <c r="C272" t="s">
         <v>8</v>
@@ -5163,16 +5395,17 @@
       <c r="D272" t="s">
         <v>9</v>
       </c>
-      <c r="E272" s="3">
+      <c r="E272">
         <v>-11</v>
       </c>
-    </row>
-    <row r="273" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A273" s="3">
+      <c r="F272" s="3"/>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A273">
         <v>272</v>
       </c>
-      <c r="B273" s="7">
-        <v>45777</v>
+      <c r="B273" s="3">
+        <v>45693</v>
       </c>
       <c r="C273" t="s">
         <v>8</v>
@@ -5180,16 +5413,17 @@
       <c r="D273" t="s">
         <v>13</v>
       </c>
-      <c r="E273" s="3">
+      <c r="E273">
         <v>-13</v>
       </c>
-    </row>
-    <row r="274" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A274" s="3">
+      <c r="F273" s="3"/>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A274">
         <v>273</v>
       </c>
-      <c r="B274" s="7">
-        <v>45777</v>
+      <c r="B274" s="3">
+        <v>45693</v>
       </c>
       <c r="C274" t="s">
         <v>17</v>
@@ -5197,16 +5431,17 @@
       <c r="D274" t="s">
         <v>18</v>
       </c>
-      <c r="E274" s="3">
+      <c r="E274">
         <v>-1000</v>
       </c>
-    </row>
-    <row r="275" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A275" s="3">
+      <c r="F274" s="3"/>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A275">
         <v>274</v>
       </c>
-      <c r="B275" s="7">
-        <v>45777</v>
+      <c r="B275" s="3">
+        <v>45693</v>
       </c>
       <c r="C275" t="s">
         <v>19</v>
@@ -5214,16 +5449,17 @@
       <c r="D275" t="s">
         <v>20</v>
       </c>
-      <c r="E275" s="4">
+      <c r="E275">
         <v>-29.98</v>
       </c>
-    </row>
-    <row r="276" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A276" s="3">
+      <c r="F275" s="3"/>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A276">
         <v>275</v>
       </c>
-      <c r="B276" s="7">
-        <v>45777</v>
+      <c r="B276" s="3">
+        <v>45693</v>
       </c>
       <c r="C276" t="s">
         <v>21</v>
@@ -5231,16 +5467,17 @@
       <c r="D276" t="s">
         <v>22</v>
       </c>
-      <c r="E276" s="4">
+      <c r="E276">
         <v>-48.9</v>
       </c>
-    </row>
-    <row r="277" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A277" s="3">
+      <c r="F276" s="3"/>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A277">
         <v>276</v>
       </c>
-      <c r="B277" s="7">
-        <v>45777</v>
+      <c r="B277" s="3">
+        <v>45693</v>
       </c>
       <c r="C277" t="s">
         <v>21</v>
@@ -5248,16 +5485,17 @@
       <c r="D277" t="s">
         <v>23</v>
       </c>
-      <c r="E277" s="4">
+      <c r="E277">
         <v>-60.5</v>
       </c>
-    </row>
-    <row r="278" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A278" s="3">
+      <c r="F277" s="3"/>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A278">
         <v>277</v>
       </c>
-      <c r="B278" s="7">
-        <v>45777</v>
+      <c r="B278" s="3">
+        <v>45693</v>
       </c>
       <c r="C278" t="s">
         <v>21</v>
@@ -5265,16 +5503,17 @@
       <c r="D278" t="s">
         <v>24</v>
       </c>
-      <c r="E278" s="3">
+      <c r="E278">
         <v>-22</v>
       </c>
-    </row>
-    <row r="279" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A279" s="3">
+      <c r="F278" s="3"/>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A279">
         <v>278</v>
       </c>
-      <c r="B279" s="7">
-        <v>45777</v>
+      <c r="B279" s="3">
+        <v>45693</v>
       </c>
       <c r="C279" t="s">
         <v>25</v>
@@ -5282,11 +5521,13 @@
       <c r="D279" t="s">
         <v>26</v>
       </c>
-      <c r="E279" s="4">
+      <c r="E279">
         <v>45.67</v>
       </c>
+      <c r="F279" s="3"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>